--- a/data/01_meta/data/raw/C_maxima_GBS_accession.xlsx
+++ b/data/01_meta/data/raw/C_maxima_GBS_accession.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="1221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="1220">
   <si>
     <t xml:space="preserve">Plant Accession</t>
   </si>
@@ -1765,9 +1765,6 @@
     <t xml:space="preserve">PI_93801</t>
   </si>
   <si>
-    <t xml:space="preserve">Hebei Sheng, China</t>
-  </si>
-  <si>
     <t xml:space="preserve">CItr_5666</t>
   </si>
   <si>
@@ -3424,7 +3421,7 @@
     <t xml:space="preserve">'Golden Cooker'</t>
   </si>
   <si>
-    <t xml:space="preserve">South Korea</t>
+    <t xml:space="preserve">Korea</t>
   </si>
   <si>
     <t xml:space="preserve">Vine type. Maturity 30-35 days after flowering. Fruit flesh orange, dry, fine textured. Widely adapted to various soil types. Noted for excellent nut-like flavor when cooked. Cold tolerant.</t>
@@ -3801,11 +3798,11 @@
   </sheetPr>
   <dimension ref="A1:G538"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A236" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D251" activeCellId="0" sqref="D251"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.8"/>
@@ -7859,15 +7856,15 @@
         <v>9</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>581</v>
+        <v>373</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="B252" s="0" t="s">
         <v>582</v>
-      </c>
-      <c r="B252" s="0" t="s">
-        <v>583</v>
       </c>
       <c r="C252" s="0" t="s">
         <v>9</v>
@@ -7879,15 +7876,15 @@
         <v>16</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="B253" s="0" t="s">
         <v>585</v>
-      </c>
-      <c r="B253" s="0" t="s">
-        <v>586</v>
       </c>
       <c r="C253" s="0" t="s">
         <v>9</v>
@@ -7899,15 +7896,15 @@
         <v>16</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="B254" s="0" t="s">
         <v>588</v>
-      </c>
-      <c r="B254" s="0" t="s">
-        <v>589</v>
       </c>
       <c r="C254" s="0" t="s">
         <v>9</v>
@@ -7921,16 +7918,16 @@
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="B255" s="0" t="s">
         <v>590</v>
       </c>
-      <c r="B255" s="0" t="s">
+      <c r="C255" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D255" s="0" t="s">
         <v>591</v>
-      </c>
-      <c r="C255" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D255" s="0" t="s">
-        <v>592</v>
       </c>
       <c r="E255" s="0" t="s">
         <v>16</v>
@@ -7938,16 +7935,16 @@
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="B256" s="0" t="s">
         <v>593</v>
       </c>
-      <c r="B256" s="0" t="s">
-        <v>594</v>
-      </c>
       <c r="C256" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D256" s="0" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E256" s="0" t="s">
         <v>16</v>
@@ -7955,10 +7952,10 @@
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="B257" s="0" t="s">
         <v>595</v>
-      </c>
-      <c r="B257" s="0" t="s">
-        <v>596</v>
       </c>
       <c r="C257" s="0" t="s">
         <v>9</v>
@@ -7975,10 +7972,10 @@
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="B258" s="0" t="s">
         <v>597</v>
-      </c>
-      <c r="B258" s="0" t="s">
-        <v>598</v>
       </c>
       <c r="C258" s="0" t="s">
         <v>9</v>
@@ -7995,10 +7992,10 @@
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="B259" s="0" t="s">
         <v>599</v>
-      </c>
-      <c r="B259" s="0" t="s">
-        <v>600</v>
       </c>
       <c r="C259" s="0" t="s">
         <v>9</v>
@@ -8015,7 +8012,7 @@
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B260" s="0" t="s">
         <v>48</v>
@@ -8035,10 +8032,10 @@
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="B261" s="0" t="s">
         <v>602</v>
-      </c>
-      <c r="B261" s="0" t="s">
-        <v>603</v>
       </c>
       <c r="C261" s="0" t="s">
         <v>9</v>
@@ -8050,21 +8047,21 @@
         <v>16</v>
       </c>
       <c r="F261" s="0" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="B262" s="0" t="s">
         <v>604</v>
       </c>
-      <c r="B262" s="0" t="s">
+      <c r="C262" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D262" s="0" t="s">
         <v>605</v>
-      </c>
-      <c r="C262" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D262" s="0" t="s">
-        <v>606</v>
       </c>
       <c r="E262" s="0" t="s">
         <v>16</v>
@@ -8072,10 +8069,10 @@
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="B263" s="0" t="s">
         <v>607</v>
-      </c>
-      <c r="B263" s="0" t="s">
-        <v>608</v>
       </c>
       <c r="C263" s="0" t="s">
         <v>9</v>
@@ -8089,10 +8086,10 @@
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="B264" s="0" t="s">
         <v>609</v>
-      </c>
-      <c r="B264" s="0" t="s">
-        <v>610</v>
       </c>
       <c r="C264" s="0" t="s">
         <v>9</v>
@@ -8106,10 +8103,10 @@
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="B265" s="0" t="s">
         <v>611</v>
-      </c>
-      <c r="B265" s="0" t="s">
-        <v>612</v>
       </c>
       <c r="C265" s="0" t="s">
         <v>9</v>
@@ -8121,15 +8118,15 @@
         <v>16</v>
       </c>
       <c r="F265" s="0" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="B266" s="0" t="s">
         <v>614</v>
-      </c>
-      <c r="B266" s="0" t="s">
-        <v>615</v>
       </c>
       <c r="C266" s="0" t="s">
         <v>9</v>
@@ -8143,16 +8140,16 @@
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="B267" s="0" t="s">
         <v>616</v>
       </c>
-      <c r="B267" s="0" t="s">
+      <c r="C267" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D267" s="0" t="s">
         <v>617</v>
-      </c>
-      <c r="C267" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D267" s="0" t="s">
-        <v>618</v>
       </c>
       <c r="E267" s="0" t="s">
         <v>550</v>
@@ -8160,36 +8157,36 @@
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="B268" s="0" t="s">
         <v>619</v>
       </c>
-      <c r="B268" s="0" t="s">
-        <v>620</v>
-      </c>
       <c r="C268" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D268" s="0" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E268" s="0" t="s">
         <v>550</v>
       </c>
       <c r="G268" s="0" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="B269" s="0" t="s">
         <v>622</v>
       </c>
-      <c r="B269" s="0" t="s">
+      <c r="C269" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D269" s="0" t="s">
         <v>623</v>
-      </c>
-      <c r="C269" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D269" s="0" t="s">
-        <v>624</v>
       </c>
       <c r="E269" s="0" t="s">
         <v>16</v>
@@ -8197,16 +8194,16 @@
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="B270" s="0" t="s">
         <v>625</v>
       </c>
-      <c r="B270" s="0" t="s">
-        <v>626</v>
-      </c>
       <c r="C270" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D270" s="0" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E270" s="0" t="s">
         <v>16</v>
@@ -8214,70 +8211,70 @@
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="B271" s="0" t="s">
         <v>627</v>
       </c>
-      <c r="B271" s="0" t="s">
+      <c r="C271" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D271" s="0" t="s">
         <v>628</v>
-      </c>
-      <c r="C271" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D271" s="0" t="s">
-        <v>629</v>
       </c>
       <c r="E271" s="0" t="s">
         <v>75</v>
       </c>
       <c r="G271" s="0" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="B272" s="0" t="s">
         <v>631</v>
       </c>
-      <c r="B272" s="0" t="s">
-        <v>632</v>
-      </c>
       <c r="C272" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D272" s="0" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E272" s="0" t="s">
         <v>75</v>
       </c>
       <c r="G272" s="0" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="B273" s="0" t="s">
         <v>634</v>
       </c>
-      <c r="B273" s="0" t="s">
-        <v>635</v>
-      </c>
       <c r="C273" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D273" s="0" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E273" s="0" t="s">
         <v>550</v>
       </c>
       <c r="G273" s="0" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="B274" s="0" t="s">
         <v>637</v>
-      </c>
-      <c r="B274" s="0" t="s">
-        <v>638</v>
       </c>
       <c r="C274" s="0" t="s">
         <v>9</v>
@@ -8289,15 +8286,15 @@
         <v>16</v>
       </c>
       <c r="F274" s="0" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="B275" s="0" t="s">
         <v>640</v>
-      </c>
-      <c r="B275" s="0" t="s">
-        <v>641</v>
       </c>
       <c r="C275" s="0" t="s">
         <v>9</v>
@@ -8309,15 +8306,15 @@
         <v>16</v>
       </c>
       <c r="F275" s="0" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="B276" s="0" t="s">
         <v>642</v>
-      </c>
-      <c r="B276" s="0" t="s">
-        <v>643</v>
       </c>
       <c r="C276" s="0" t="s">
         <v>9</v>
@@ -8329,15 +8326,15 @@
         <v>16</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="B277" s="0" t="s">
         <v>644</v>
-      </c>
-      <c r="B277" s="0" t="s">
-        <v>645</v>
       </c>
       <c r="C277" s="0" t="s">
         <v>9</v>
@@ -8349,15 +8346,15 @@
         <v>16</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="B278" s="0" t="s">
         <v>646</v>
-      </c>
-      <c r="B278" s="0" t="s">
-        <v>647</v>
       </c>
       <c r="C278" s="0" t="s">
         <v>9</v>
@@ -8369,15 +8366,15 @@
         <v>16</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="B279" s="0" t="s">
         <v>648</v>
-      </c>
-      <c r="B279" s="0" t="s">
-        <v>649</v>
       </c>
       <c r="C279" s="0" t="s">
         <v>9</v>
@@ -8388,10 +8385,10 @@
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="B280" s="0" t="s">
         <v>650</v>
-      </c>
-      <c r="B280" s="0" t="s">
-        <v>651</v>
       </c>
       <c r="C280" s="0" t="s">
         <v>9</v>
@@ -8402,86 +8399,86 @@
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="B281" s="0" t="s">
         <v>652</v>
       </c>
-      <c r="B281" s="0" t="s">
+      <c r="C281" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D281" s="0" t="s">
         <v>653</v>
-      </c>
-      <c r="C281" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D281" s="0" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="B282" s="0" t="s">
         <v>655</v>
       </c>
-      <c r="B282" s="0" t="s">
-        <v>656</v>
-      </c>
       <c r="C282" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D282" s="0" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="B283" s="0" t="s">
         <v>657</v>
       </c>
-      <c r="B283" s="0" t="s">
-        <v>658</v>
-      </c>
       <c r="C283" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D283" s="0" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="B284" s="0" t="s">
         <v>659</v>
       </c>
-      <c r="B284" s="0" t="s">
-        <v>660</v>
-      </c>
       <c r="C284" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D284" s="0" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="B285" s="0" t="s">
         <v>661</v>
       </c>
-      <c r="B285" s="0" t="s">
-        <v>662</v>
-      </c>
       <c r="C285" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D285" s="0" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="B286" s="0" t="s">
         <v>663</v>
       </c>
-      <c r="B286" s="0" t="s">
+      <c r="C286" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D286" s="0" t="s">
         <v>664</v>
-      </c>
-      <c r="C286" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D286" s="0" t="s">
-        <v>665</v>
       </c>
       <c r="E286" s="0" t="s">
         <v>16</v>
@@ -8489,10 +8486,10 @@
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="B287" s="0" t="s">
         <v>666</v>
-      </c>
-      <c r="B287" s="0" t="s">
-        <v>667</v>
       </c>
       <c r="C287" s="0" t="s">
         <v>9</v>
@@ -8504,15 +8501,15 @@
         <v>16</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="B288" s="0" t="s">
         <v>669</v>
-      </c>
-      <c r="B288" s="0" t="s">
-        <v>670</v>
       </c>
       <c r="C288" s="0" t="s">
         <v>9</v>
@@ -8526,10 +8523,10 @@
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="B289" s="0" t="s">
         <v>671</v>
-      </c>
-      <c r="B289" s="0" t="s">
-        <v>672</v>
       </c>
       <c r="C289" s="0" t="s">
         <v>9</v>
@@ -8541,38 +8538,38 @@
         <v>16</v>
       </c>
       <c r="F289" s="0" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G289" s="0" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="B290" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="B290" s="0" t="s">
-        <v>675</v>
-      </c>
       <c r="C290" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D290" s="0" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E290" s="0" t="s">
         <v>16</v>
       </c>
       <c r="F290" s="0" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="B291" s="0" t="s">
         <v>676</v>
-      </c>
-      <c r="B291" s="0" t="s">
-        <v>677</v>
       </c>
       <c r="C291" s="0" t="s">
         <v>9</v>
@@ -8583,10 +8580,10 @@
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="B292" s="0" t="s">
         <v>678</v>
-      </c>
-      <c r="B292" s="0" t="s">
-        <v>679</v>
       </c>
       <c r="C292" s="0" t="s">
         <v>9</v>
@@ -8597,10 +8594,10 @@
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="B293" s="0" t="s">
         <v>680</v>
-      </c>
-      <c r="B293" s="0" t="s">
-        <v>681</v>
       </c>
       <c r="C293" s="0" t="s">
         <v>9</v>
@@ -8609,15 +8606,15 @@
         <v>10</v>
       </c>
       <c r="G293" s="0" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="B294" s="0" t="s">
         <v>683</v>
-      </c>
-      <c r="B294" s="0" t="s">
-        <v>684</v>
       </c>
       <c r="C294" s="0" t="s">
         <v>9</v>
@@ -8626,15 +8623,15 @@
         <v>10</v>
       </c>
       <c r="G294" s="0" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="B295" s="0" t="s">
         <v>686</v>
-      </c>
-      <c r="B295" s="0" t="s">
-        <v>687</v>
       </c>
       <c r="C295" s="0" t="s">
         <v>9</v>
@@ -8643,15 +8640,15 @@
         <v>10</v>
       </c>
       <c r="G295" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="B296" s="0" t="s">
         <v>689</v>
-      </c>
-      <c r="B296" s="0" t="s">
-        <v>690</v>
       </c>
       <c r="C296" s="0" t="s">
         <v>9</v>
@@ -8660,15 +8657,15 @@
         <v>10</v>
       </c>
       <c r="G296" s="0" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="B297" s="0" t="s">
         <v>692</v>
-      </c>
-      <c r="B297" s="0" t="s">
-        <v>693</v>
       </c>
       <c r="C297" s="0" t="s">
         <v>9</v>
@@ -8677,15 +8674,15 @@
         <v>10</v>
       </c>
       <c r="G297" s="0" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="B298" s="0" t="s">
         <v>695</v>
-      </c>
-      <c r="B298" s="0" t="s">
-        <v>696</v>
       </c>
       <c r="C298" s="0" t="s">
         <v>9</v>
@@ -8694,15 +8691,15 @@
         <v>10</v>
       </c>
       <c r="G298" s="0" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="B299" s="0" t="s">
         <v>698</v>
-      </c>
-      <c r="B299" s="0" t="s">
-        <v>699</v>
       </c>
       <c r="C299" s="0" t="s">
         <v>9</v>
@@ -8711,15 +8708,15 @@
         <v>212</v>
       </c>
       <c r="G299" s="0" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="B300" s="0" t="s">
         <v>701</v>
-      </c>
-      <c r="B300" s="0" t="s">
-        <v>702</v>
       </c>
       <c r="C300" s="0" t="s">
         <v>9</v>
@@ -8728,15 +8725,15 @@
         <v>212</v>
       </c>
       <c r="G300" s="0" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="B301" s="0" t="s">
         <v>704</v>
-      </c>
-      <c r="B301" s="0" t="s">
-        <v>705</v>
       </c>
       <c r="C301" s="0" t="s">
         <v>9</v>
@@ -8745,54 +8742,54 @@
         <v>212</v>
       </c>
       <c r="G301" s="0" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="B302" s="0" t="s">
         <v>707</v>
       </c>
-      <c r="B302" s="0" t="s">
+      <c r="C302" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D302" s="0" t="s">
         <v>708</v>
-      </c>
-      <c r="C302" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D302" s="0" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="B303" s="0" t="s">
         <v>710</v>
       </c>
-      <c r="B303" s="0" t="s">
-        <v>711</v>
-      </c>
       <c r="C303" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D303" s="0" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="B304" s="0" t="s">
         <v>712</v>
       </c>
-      <c r="B304" s="0" t="s">
-        <v>713</v>
-      </c>
       <c r="C304" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D304" s="0" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B305" s="0" t="s">
         <v>86</v>
@@ -8804,12 +8801,12 @@
         <v>114</v>
       </c>
       <c r="G305" s="0" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B306" s="0" t="s">
         <v>86</v>
@@ -8821,15 +8818,15 @@
         <v>114</v>
       </c>
       <c r="G306" s="0" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="B307" s="0" t="s">
         <v>718</v>
-      </c>
-      <c r="B307" s="0" t="s">
-        <v>719</v>
       </c>
       <c r="C307" s="0" t="s">
         <v>9</v>
@@ -8838,15 +8835,15 @@
         <v>114</v>
       </c>
       <c r="G307" s="0" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="B308" s="0" t="s">
         <v>721</v>
-      </c>
-      <c r="B308" s="0" t="s">
-        <v>722</v>
       </c>
       <c r="C308" s="0" t="s">
         <v>9</v>
@@ -8855,15 +8852,15 @@
         <v>114</v>
       </c>
       <c r="G308" s="0" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="B309" s="0" t="s">
         <v>724</v>
-      </c>
-      <c r="B309" s="0" t="s">
-        <v>725</v>
       </c>
       <c r="C309" s="0" t="s">
         <v>9</v>
@@ -8874,7 +8871,7 @@
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B310" s="0" t="s">
         <v>86</v>
@@ -8888,10 +8885,10 @@
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="B311" s="0" t="s">
         <v>727</v>
-      </c>
-      <c r="B311" s="0" t="s">
-        <v>728</v>
       </c>
       <c r="C311" s="0" t="s">
         <v>9</v>
@@ -8902,7 +8899,7 @@
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B312" s="0" t="s">
         <v>86</v>
@@ -8917,12 +8914,12 @@
         <v>16</v>
       </c>
       <c r="G312" s="0" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B313" s="0" t="s">
         <v>86</v>
@@ -8934,12 +8931,12 @@
         <v>114</v>
       </c>
       <c r="G313" s="0" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B314" s="0" t="s">
         <v>86</v>
@@ -8951,12 +8948,12 @@
         <v>114</v>
       </c>
       <c r="G314" s="0" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B315" s="0" t="s">
         <v>86</v>
@@ -8970,10 +8967,10 @@
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="B316" s="0" t="s">
         <v>736</v>
-      </c>
-      <c r="B316" s="0" t="s">
-        <v>737</v>
       </c>
       <c r="C316" s="0" t="s">
         <v>9</v>
@@ -8982,15 +8979,15 @@
         <v>114</v>
       </c>
       <c r="G316" s="0" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="B317" s="0" t="s">
         <v>739</v>
-      </c>
-      <c r="B317" s="0" t="s">
-        <v>740</v>
       </c>
       <c r="C317" s="0" t="s">
         <v>9</v>
@@ -9001,10 +8998,10 @@
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="B318" s="0" t="s">
         <v>741</v>
-      </c>
-      <c r="B318" s="0" t="s">
-        <v>742</v>
       </c>
       <c r="C318" s="0" t="s">
         <v>9</v>
@@ -9013,15 +9010,15 @@
         <v>114</v>
       </c>
       <c r="G318" s="0" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="B319" s="0" t="s">
         <v>744</v>
-      </c>
-      <c r="B319" s="0" t="s">
-        <v>745</v>
       </c>
       <c r="C319" s="0" t="s">
         <v>9</v>
@@ -9030,15 +9027,15 @@
         <v>114</v>
       </c>
       <c r="G319" s="0" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="B320" s="0" t="s">
         <v>747</v>
-      </c>
-      <c r="B320" s="0" t="s">
-        <v>748</v>
       </c>
       <c r="C320" s="0" t="s">
         <v>9</v>
@@ -9047,15 +9044,15 @@
         <v>114</v>
       </c>
       <c r="G320" s="0" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="B321" s="0" t="s">
         <v>750</v>
-      </c>
-      <c r="B321" s="0" t="s">
-        <v>751</v>
       </c>
       <c r="C321" s="0" t="s">
         <v>9</v>
@@ -9064,15 +9061,15 @@
         <v>114</v>
       </c>
       <c r="G321" s="0" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="B322" s="0" t="s">
         <v>753</v>
-      </c>
-      <c r="B322" s="0" t="s">
-        <v>754</v>
       </c>
       <c r="C322" s="0" t="s">
         <v>9</v>
@@ -9081,15 +9078,15 @@
         <v>114</v>
       </c>
       <c r="G322" s="0" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="B323" s="0" t="s">
         <v>756</v>
-      </c>
-      <c r="B323" s="0" t="s">
-        <v>757</v>
       </c>
       <c r="C323" s="0" t="s">
         <v>9</v>
@@ -9098,15 +9095,15 @@
         <v>114</v>
       </c>
       <c r="G323" s="0" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="B324" s="0" t="s">
         <v>759</v>
-      </c>
-      <c r="B324" s="0" t="s">
-        <v>760</v>
       </c>
       <c r="C324" s="0" t="s">
         <v>9</v>
@@ -9117,7 +9114,7 @@
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B325" s="0" t="s">
         <v>134</v>
@@ -9131,10 +9128,10 @@
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="B326" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="B326" s="0" t="s">
-        <v>763</v>
       </c>
       <c r="C326" s="0" t="s">
         <v>9</v>
@@ -9145,10 +9142,10 @@
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="B327" s="0" t="s">
         <v>764</v>
-      </c>
-      <c r="B327" s="0" t="s">
-        <v>765</v>
       </c>
       <c r="C327" s="0" t="s">
         <v>9</v>
@@ -9159,7 +9156,7 @@
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B328" s="0" t="s">
         <v>134</v>
@@ -9173,7 +9170,7 @@
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B329" s="0" t="s">
         <v>86</v>
@@ -9187,7 +9184,7 @@
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B330" s="0" t="s">
         <v>88</v>
@@ -9196,12 +9193,12 @@
         <v>9</v>
       </c>
       <c r="D330" s="0" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B331" s="0" t="s">
         <v>147</v>
@@ -9215,10 +9212,10 @@
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="B332" s="0" t="s">
         <v>770</v>
-      </c>
-      <c r="B332" s="0" t="s">
-        <v>771</v>
       </c>
       <c r="C332" s="0" t="s">
         <v>9</v>
@@ -9229,10 +9226,10 @@
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="B333" s="0" t="s">
         <v>772</v>
-      </c>
-      <c r="B333" s="0" t="s">
-        <v>773</v>
       </c>
       <c r="C333" s="0" t="s">
         <v>9</v>
@@ -9243,10 +9240,10 @@
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="B334" s="0" t="s">
         <v>774</v>
-      </c>
-      <c r="B334" s="0" t="s">
-        <v>775</v>
       </c>
       <c r="C334" s="0" t="s">
         <v>9</v>
@@ -9257,10 +9254,10 @@
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="B335" s="0" t="s">
         <v>776</v>
-      </c>
-      <c r="B335" s="0" t="s">
-        <v>777</v>
       </c>
       <c r="C335" s="0" t="s">
         <v>9</v>
@@ -9271,10 +9268,10 @@
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="B336" s="0" t="s">
         <v>778</v>
-      </c>
-      <c r="B336" s="0" t="s">
-        <v>779</v>
       </c>
       <c r="C336" s="0" t="s">
         <v>9</v>
@@ -9285,10 +9282,10 @@
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="B337" s="0" t="s">
         <v>780</v>
-      </c>
-      <c r="B337" s="0" t="s">
-        <v>781</v>
       </c>
       <c r="C337" s="0" t="s">
         <v>9</v>
@@ -9299,10 +9296,10 @@
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="B338" s="0" t="s">
         <v>782</v>
-      </c>
-      <c r="B338" s="0" t="s">
-        <v>783</v>
       </c>
       <c r="C338" s="0" t="s">
         <v>9</v>
@@ -9313,10 +9310,10 @@
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="B339" s="0" t="s">
         <v>784</v>
-      </c>
-      <c r="B339" s="0" t="s">
-        <v>785</v>
       </c>
       <c r="C339" s="0" t="s">
         <v>9</v>
@@ -9327,10 +9324,10 @@
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
+        <v>785</v>
+      </c>
+      <c r="B340" s="0" t="s">
         <v>786</v>
-      </c>
-      <c r="B340" s="0" t="s">
-        <v>787</v>
       </c>
       <c r="C340" s="0" t="s">
         <v>9</v>
@@ -9341,10 +9338,10 @@
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="B341" s="0" t="s">
         <v>788</v>
-      </c>
-      <c r="B341" s="0" t="s">
-        <v>789</v>
       </c>
       <c r="C341" s="0" t="s">
         <v>9</v>
@@ -9355,10 +9352,10 @@
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
+        <v>789</v>
+      </c>
+      <c r="B342" s="0" t="s">
         <v>790</v>
-      </c>
-      <c r="B342" s="0" t="s">
-        <v>791</v>
       </c>
       <c r="C342" s="0" t="s">
         <v>9</v>
@@ -9369,10 +9366,10 @@
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="B343" s="0" t="s">
         <v>792</v>
-      </c>
-      <c r="B343" s="0" t="s">
-        <v>793</v>
       </c>
       <c r="C343" s="0" t="s">
         <v>9</v>
@@ -9383,10 +9380,10 @@
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B344" s="0" t="s">
         <v>794</v>
-      </c>
-      <c r="B344" s="0" t="s">
-        <v>795</v>
       </c>
       <c r="C344" s="0" t="s">
         <v>9</v>
@@ -9397,7 +9394,7 @@
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B345" s="0" t="s">
         <v>147</v>
@@ -9411,10 +9408,10 @@
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
+        <v>796</v>
+      </c>
+      <c r="B346" s="0" t="s">
         <v>797</v>
-      </c>
-      <c r="B346" s="0" t="s">
-        <v>798</v>
       </c>
       <c r="C346" s="0" t="s">
         <v>9</v>
@@ -9425,7 +9422,7 @@
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B347" s="0" t="s">
         <v>147</v>
@@ -9439,10 +9436,10 @@
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="B348" s="0" t="s">
         <v>800</v>
-      </c>
-      <c r="B348" s="0" t="s">
-        <v>801</v>
       </c>
       <c r="C348" s="0" t="s">
         <v>9</v>
@@ -9453,10 +9450,10 @@
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="B349" s="0" t="s">
         <v>802</v>
-      </c>
-      <c r="B349" s="0" t="s">
-        <v>803</v>
       </c>
       <c r="C349" s="0" t="s">
         <v>9</v>
@@ -9467,10 +9464,10 @@
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="B350" s="0" t="s">
         <v>804</v>
-      </c>
-      <c r="B350" s="0" t="s">
-        <v>805</v>
       </c>
       <c r="C350" s="0" t="s">
         <v>9</v>
@@ -9481,10 +9478,10 @@
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="B351" s="0" t="s">
         <v>806</v>
-      </c>
-      <c r="B351" s="0" t="s">
-        <v>807</v>
       </c>
       <c r="C351" s="0" t="s">
         <v>9</v>
@@ -9495,7 +9492,7 @@
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B352" s="0" t="s">
         <v>134</v>
@@ -9509,10 +9506,10 @@
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="B353" s="0" t="s">
         <v>809</v>
-      </c>
-      <c r="B353" s="0" t="s">
-        <v>810</v>
       </c>
       <c r="C353" s="0" t="s">
         <v>9</v>
@@ -9523,7 +9520,7 @@
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B354" s="0" t="s">
         <v>86</v>
@@ -9532,15 +9529,15 @@
         <v>9</v>
       </c>
       <c r="D354" s="0" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G354" s="0" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B355" s="0" t="s">
         <v>86</v>
@@ -9552,12 +9549,12 @@
         <v>82</v>
       </c>
       <c r="G355" s="0" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B356" s="0" t="s">
         <v>86</v>
@@ -9571,7 +9568,7 @@
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B357" s="0" t="s">
         <v>86</v>
@@ -9583,12 +9580,12 @@
         <v>82</v>
       </c>
       <c r="G357" s="0" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B358" s="0" t="s">
         <v>86</v>
@@ -9600,12 +9597,12 @@
         <v>82</v>
       </c>
       <c r="G358" s="0" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B359" s="0" t="s">
         <v>134</v>
@@ -9619,10 +9616,10 @@
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="B360" s="0" t="s">
         <v>821</v>
-      </c>
-      <c r="B360" s="0" t="s">
-        <v>822</v>
       </c>
       <c r="C360" s="0" t="s">
         <v>9</v>
@@ -9633,10 +9630,10 @@
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="B361" s="0" t="s">
         <v>823</v>
-      </c>
-      <c r="B361" s="0" t="s">
-        <v>824</v>
       </c>
       <c r="C361" s="0" t="s">
         <v>9</v>
@@ -9647,10 +9644,10 @@
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="B362" s="0" t="s">
         <v>825</v>
-      </c>
-      <c r="B362" s="0" t="s">
-        <v>826</v>
       </c>
       <c r="C362" s="0" t="s">
         <v>9</v>
@@ -9661,7 +9658,7 @@
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B363" s="0" t="s">
         <v>134</v>
@@ -9675,7 +9672,7 @@
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B364" s="0" t="s">
         <v>134</v>
@@ -9689,10 +9686,10 @@
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="B365" s="0" t="s">
         <v>829</v>
-      </c>
-      <c r="B365" s="0" t="s">
-        <v>830</v>
       </c>
       <c r="C365" s="0" t="s">
         <v>9</v>
@@ -9703,10 +9700,10 @@
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="B366" s="0" t="s">
         <v>831</v>
-      </c>
-      <c r="B366" s="0" t="s">
-        <v>832</v>
       </c>
       <c r="C366" s="0" t="s">
         <v>9</v>
@@ -9717,10 +9714,10 @@
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="B367" s="0" t="s">
         <v>833</v>
-      </c>
-      <c r="B367" s="0" t="s">
-        <v>834</v>
       </c>
       <c r="C367" s="0" t="s">
         <v>9</v>
@@ -9731,7 +9728,7 @@
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B368" s="0" t="s">
         <v>134</v>
@@ -9745,7 +9742,7 @@
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B369" s="0" t="s">
         <v>147</v>
@@ -9759,10 +9756,10 @@
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="B370" s="0" t="s">
         <v>837</v>
-      </c>
-      <c r="B370" s="0" t="s">
-        <v>838</v>
       </c>
       <c r="C370" s="0" t="s">
         <v>9</v>
@@ -9773,10 +9770,10 @@
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="B371" s="0" t="s">
         <v>839</v>
-      </c>
-      <c r="B371" s="0" t="s">
-        <v>840</v>
       </c>
       <c r="C371" s="0" t="s">
         <v>9</v>
@@ -9787,24 +9784,24 @@
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="B372" s="0" t="s">
         <v>841</v>
       </c>
-      <c r="B372" s="0" t="s">
+      <c r="C372" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D372" s="0" t="s">
         <v>842</v>
-      </c>
-      <c r="C372" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D372" s="0" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="B373" s="0" t="s">
         <v>844</v>
-      </c>
-      <c r="B373" s="0" t="s">
-        <v>845</v>
       </c>
       <c r="C373" s="0" t="s">
         <v>9</v>
@@ -9815,10 +9812,10 @@
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="B374" s="0" t="s">
         <v>846</v>
-      </c>
-      <c r="B374" s="0" t="s">
-        <v>847</v>
       </c>
       <c r="C374" s="0" t="s">
         <v>9</v>
@@ -9829,10 +9826,10 @@
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="B375" s="0" t="s">
         <v>848</v>
-      </c>
-      <c r="B375" s="0" t="s">
-        <v>849</v>
       </c>
       <c r="C375" s="0" t="s">
         <v>9</v>
@@ -9843,7 +9840,7 @@
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B376" s="0" t="s">
         <v>88</v>
@@ -9857,7 +9854,7 @@
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B377" s="0" t="s">
         <v>88</v>
@@ -9871,10 +9868,10 @@
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="B378" s="0" t="s">
         <v>852</v>
-      </c>
-      <c r="B378" s="0" t="s">
-        <v>853</v>
       </c>
       <c r="C378" s="0" t="s">
         <v>9</v>
@@ -9885,10 +9882,10 @@
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="B379" s="0" t="s">
         <v>854</v>
-      </c>
-      <c r="B379" s="0" t="s">
-        <v>855</v>
       </c>
       <c r="C379" s="0" t="s">
         <v>9</v>
@@ -9899,10 +9896,10 @@
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="B380" s="0" t="s">
         <v>856</v>
-      </c>
-      <c r="B380" s="0" t="s">
-        <v>857</v>
       </c>
       <c r="C380" s="0" t="s">
         <v>9</v>
@@ -9916,7 +9913,7 @@
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B381" s="0" t="s">
         <v>147</v>
@@ -9930,10 +9927,10 @@
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="B382" s="0" t="s">
         <v>859</v>
-      </c>
-      <c r="B382" s="0" t="s">
-        <v>860</v>
       </c>
       <c r="C382" s="0" t="s">
         <v>9</v>
@@ -9944,10 +9941,10 @@
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="B383" s="0" t="s">
         <v>861</v>
-      </c>
-      <c r="B383" s="0" t="s">
-        <v>862</v>
       </c>
       <c r="C383" s="0" t="s">
         <v>9</v>
@@ -9958,10 +9955,10 @@
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="B384" s="0" t="s">
         <v>863</v>
-      </c>
-      <c r="B384" s="0" t="s">
-        <v>864</v>
       </c>
       <c r="C384" s="0" t="s">
         <v>9</v>
@@ -9972,24 +9969,24 @@
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
+        <v>864</v>
+      </c>
+      <c r="B385" s="0" t="s">
         <v>865</v>
       </c>
-      <c r="B385" s="0" t="s">
+      <c r="C385" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D385" s="0" t="s">
         <v>866</v>
-      </c>
-      <c r="C385" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D385" s="0" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
+        <v>867</v>
+      </c>
+      <c r="B386" s="0" t="s">
         <v>868</v>
-      </c>
-      <c r="B386" s="0" t="s">
-        <v>869</v>
       </c>
       <c r="C386" s="0" t="s">
         <v>9</v>
@@ -9998,15 +9995,15 @@
         <v>212</v>
       </c>
       <c r="G386" s="0" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
+        <v>870</v>
+      </c>
+      <c r="B387" s="0" t="s">
         <v>871</v>
-      </c>
-      <c r="B387" s="0" t="s">
-        <v>872</v>
       </c>
       <c r="C387" s="0" t="s">
         <v>9</v>
@@ -10015,15 +10012,15 @@
         <v>10</v>
       </c>
       <c r="G387" s="0" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="B388" s="0" t="s">
         <v>874</v>
-      </c>
-      <c r="B388" s="0" t="s">
-        <v>875</v>
       </c>
       <c r="C388" s="0" t="s">
         <v>9</v>
@@ -10032,12 +10029,12 @@
         <v>114</v>
       </c>
       <c r="G388" s="0" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B389" s="0" t="s">
         <v>187</v>
@@ -10051,10 +10048,10 @@
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
+        <v>877</v>
+      </c>
+      <c r="B390" s="0" t="s">
         <v>878</v>
-      </c>
-      <c r="B390" s="0" t="s">
-        <v>879</v>
       </c>
       <c r="C390" s="0" t="s">
         <v>9</v>
@@ -10069,12 +10066,12 @@
         <v>19</v>
       </c>
       <c r="G390" s="0" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B391" s="0" t="s">
         <v>134</v>
@@ -10086,15 +10083,15 @@
         <v>135</v>
       </c>
       <c r="G391" s="0" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="B392" s="0" t="s">
         <v>883</v>
-      </c>
-      <c r="B392" s="0" t="s">
-        <v>884</v>
       </c>
       <c r="C392" s="0" t="s">
         <v>9</v>
@@ -10105,10 +10102,10 @@
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
+        <v>884</v>
+      </c>
+      <c r="B393" s="0" t="s">
         <v>885</v>
-      </c>
-      <c r="B393" s="0" t="s">
-        <v>886</v>
       </c>
       <c r="C393" s="0" t="s">
         <v>9</v>
@@ -10119,7 +10116,7 @@
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B394" s="0" t="s">
         <v>88</v>
@@ -10131,26 +10128,26 @@
         <v>135</v>
       </c>
       <c r="G394" s="0" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
+        <v>888</v>
+      </c>
+      <c r="B395" s="0" t="s">
         <v>889</v>
       </c>
-      <c r="B395" s="0" t="s">
-        <v>890</v>
-      </c>
       <c r="C395" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D395" s="0" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B396" s="0" t="s">
         <v>88</v>
@@ -10162,32 +10159,32 @@
         <v>15</v>
       </c>
       <c r="G396" s="0" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="B397" s="0" t="s">
         <v>893</v>
       </c>
-      <c r="B397" s="0" t="s">
+      <c r="C397" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D397" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="G397" s="0" t="s">
         <v>894</v>
-      </c>
-      <c r="C397" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D397" s="0" t="s">
-        <v>618</v>
-      </c>
-      <c r="G397" s="0" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
+        <v>895</v>
+      </c>
+      <c r="B398" s="0" t="s">
         <v>896</v>
-      </c>
-      <c r="B398" s="0" t="s">
-        <v>897</v>
       </c>
       <c r="C398" s="0" t="s">
         <v>9</v>
@@ -10196,12 +10193,12 @@
         <v>558</v>
       </c>
       <c r="G398" s="0" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B399" s="2" t="n">
         <v>2049</v>
@@ -10215,10 +10212,10 @@
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
+        <v>899</v>
+      </c>
+      <c r="B400" s="0" t="s">
         <v>900</v>
-      </c>
-      <c r="B400" s="0" t="s">
-        <v>901</v>
       </c>
       <c r="C400" s="0" t="s">
         <v>9</v>
@@ -10229,10 +10226,10 @@
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="B401" s="0" t="s">
         <v>902</v>
-      </c>
-      <c r="B401" s="0" t="s">
-        <v>903</v>
       </c>
       <c r="C401" s="0" t="s">
         <v>9</v>
@@ -10243,10 +10240,10 @@
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="B402" s="0" t="s">
         <v>904</v>
-      </c>
-      <c r="B402" s="0" t="s">
-        <v>905</v>
       </c>
       <c r="C402" s="0" t="s">
         <v>9</v>
@@ -10258,15 +10255,15 @@
         <v>75</v>
       </c>
       <c r="G402" s="0" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
+        <v>906</v>
+      </c>
+      <c r="B403" s="0" t="s">
         <v>907</v>
-      </c>
-      <c r="B403" s="0" t="s">
-        <v>908</v>
       </c>
       <c r="C403" s="0" t="s">
         <v>9</v>
@@ -10278,15 +10275,15 @@
         <v>16</v>
       </c>
       <c r="F403" s="0" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G403" s="0" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B404" s="0" t="s">
         <v>88</v>
@@ -10295,18 +10292,18 @@
         <v>9</v>
       </c>
       <c r="D404" s="0" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E404" s="0" t="s">
         <v>75</v>
       </c>
       <c r="G404" s="0" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B405" s="0" t="s">
         <v>88</v>
@@ -10315,18 +10312,18 @@
         <v>9</v>
       </c>
       <c r="D405" s="0" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E405" s="0" t="s">
         <v>75</v>
       </c>
       <c r="G405" s="0" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B406" s="0" t="s">
         <v>88</v>
@@ -10335,18 +10332,18 @@
         <v>9</v>
       </c>
       <c r="D406" s="0" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E406" s="0" t="s">
         <v>75</v>
       </c>
       <c r="G406" s="0" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B407" s="0" t="s">
         <v>88</v>
@@ -10360,7 +10357,7 @@
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B408" s="0" t="s">
         <v>296</v>
@@ -10374,10 +10371,10 @@
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
+        <v>917</v>
+      </c>
+      <c r="B409" s="0" t="s">
         <v>918</v>
-      </c>
-      <c r="B409" s="0" t="s">
-        <v>919</v>
       </c>
       <c r="C409" s="0" t="s">
         <v>9</v>
@@ -10388,7 +10385,7 @@
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B410" s="0" t="s">
         <v>302</v>
@@ -10402,10 +10399,10 @@
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="B411" s="0" t="s">
         <v>921</v>
-      </c>
-      <c r="B411" s="0" t="s">
-        <v>922</v>
       </c>
       <c r="C411" s="0" t="s">
         <v>9</v>
@@ -10416,10 +10413,10 @@
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="B412" s="0" t="s">
         <v>923</v>
-      </c>
-      <c r="B412" s="0" t="s">
-        <v>924</v>
       </c>
       <c r="C412" s="0" t="s">
         <v>9</v>
@@ -10430,7 +10427,7 @@
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B413" s="0" t="s">
         <v>320</v>
@@ -10444,10 +10441,10 @@
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
+        <v>925</v>
+      </c>
+      <c r="B414" s="0" t="s">
         <v>926</v>
-      </c>
-      <c r="B414" s="0" t="s">
-        <v>927</v>
       </c>
       <c r="C414" s="0" t="s">
         <v>9</v>
@@ -10458,10 +10455,10 @@
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="s">
+        <v>927</v>
+      </c>
+      <c r="B415" s="0" t="s">
         <v>928</v>
-      </c>
-      <c r="B415" s="0" t="s">
-        <v>929</v>
       </c>
       <c r="C415" s="0" t="s">
         <v>9</v>
@@ -10472,10 +10469,10 @@
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
+        <v>929</v>
+      </c>
+      <c r="B416" s="0" t="s">
         <v>930</v>
-      </c>
-      <c r="B416" s="0" t="s">
-        <v>931</v>
       </c>
       <c r="C416" s="0" t="s">
         <v>9</v>
@@ -10486,10 +10483,10 @@
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="s">
+        <v>931</v>
+      </c>
+      <c r="B417" s="0" t="s">
         <v>932</v>
-      </c>
-      <c r="B417" s="0" t="s">
-        <v>933</v>
       </c>
       <c r="C417" s="0" t="s">
         <v>9</v>
@@ -10500,10 +10497,10 @@
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="s">
+        <v>933</v>
+      </c>
+      <c r="B418" s="0" t="s">
         <v>934</v>
-      </c>
-      <c r="B418" s="0" t="s">
-        <v>935</v>
       </c>
       <c r="C418" s="0" t="s">
         <v>9</v>
@@ -10514,10 +10511,10 @@
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="B419" s="0" t="s">
         <v>936</v>
-      </c>
-      <c r="B419" s="0" t="s">
-        <v>937</v>
       </c>
       <c r="C419" s="0" t="s">
         <v>9</v>
@@ -10528,10 +10525,10 @@
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="B420" s="0" t="s">
         <v>938</v>
-      </c>
-      <c r="B420" s="0" t="s">
-        <v>939</v>
       </c>
       <c r="C420" s="0" t="s">
         <v>9</v>
@@ -10542,10 +10539,10 @@
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="B421" s="0" t="s">
         <v>940</v>
-      </c>
-      <c r="B421" s="0" t="s">
-        <v>941</v>
       </c>
       <c r="C421" s="0" t="s">
         <v>9</v>
@@ -10556,10 +10553,10 @@
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="B422" s="0" t="s">
         <v>942</v>
-      </c>
-      <c r="B422" s="0" t="s">
-        <v>943</v>
       </c>
       <c r="C422" s="0" t="s">
         <v>9</v>
@@ -10570,10 +10567,10 @@
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="B423" s="0" t="s">
         <v>944</v>
-      </c>
-      <c r="B423" s="0" t="s">
-        <v>945</v>
       </c>
       <c r="C423" s="0" t="s">
         <v>9</v>
@@ -10584,10 +10581,10 @@
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="B424" s="0" t="s">
         <v>946</v>
-      </c>
-      <c r="B424" s="0" t="s">
-        <v>947</v>
       </c>
       <c r="C424" s="0" t="s">
         <v>9</v>
@@ -10598,7 +10595,7 @@
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B425" s="0" t="s">
         <v>320</v>
@@ -10612,7 +10609,7 @@
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B426" s="0" t="s">
         <v>292</v>
@@ -10626,10 +10623,10 @@
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="B427" s="0" t="s">
         <v>950</v>
-      </c>
-      <c r="B427" s="0" t="s">
-        <v>951</v>
       </c>
       <c r="C427" s="0" t="s">
         <v>9</v>
@@ -10640,24 +10637,24 @@
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
+        <v>951</v>
+      </c>
+      <c r="B428" s="0" t="s">
         <v>952</v>
       </c>
-      <c r="B428" s="0" t="s">
+      <c r="C428" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D428" s="0" t="s">
         <v>953</v>
-      </c>
-      <c r="C428" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D428" s="0" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="B429" s="0" t="s">
         <v>955</v>
-      </c>
-      <c r="B429" s="0" t="s">
-        <v>956</v>
       </c>
       <c r="C429" s="0" t="s">
         <v>9</v>
@@ -10668,10 +10665,10 @@
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
+        <v>956</v>
+      </c>
+      <c r="B430" s="0" t="s">
         <v>957</v>
-      </c>
-      <c r="B430" s="0" t="s">
-        <v>958</v>
       </c>
       <c r="C430" s="0" t="s">
         <v>9</v>
@@ -10682,10 +10679,10 @@
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="B431" s="0" t="s">
         <v>959</v>
-      </c>
-      <c r="B431" s="0" t="s">
-        <v>960</v>
       </c>
       <c r="C431" s="0" t="s">
         <v>9</v>
@@ -10696,7 +10693,7 @@
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B432" s="0" t="s">
         <v>158</v>
@@ -10708,15 +10705,15 @@
         <v>41</v>
       </c>
       <c r="G432" s="0" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="B433" s="0" t="s">
         <v>963</v>
-      </c>
-      <c r="B433" s="0" t="s">
-        <v>964</v>
       </c>
       <c r="C433" s="0" t="s">
         <v>9</v>
@@ -10725,15 +10722,15 @@
         <v>130</v>
       </c>
       <c r="G433" s="0" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="B434" s="0" t="s">
         <v>966</v>
-      </c>
-      <c r="B434" s="0" t="s">
-        <v>967</v>
       </c>
       <c r="C434" s="0" t="s">
         <v>9</v>
@@ -10742,15 +10739,15 @@
         <v>130</v>
       </c>
       <c r="G434" s="0" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
+        <v>968</v>
+      </c>
+      <c r="B435" s="0" t="s">
         <v>969</v>
-      </c>
-      <c r="B435" s="0" t="s">
-        <v>970</v>
       </c>
       <c r="C435" s="0" t="s">
         <v>9</v>
@@ -10762,15 +10759,15 @@
         <v>75</v>
       </c>
       <c r="G435" s="0" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="B436" s="0" t="s">
         <v>972</v>
-      </c>
-      <c r="B436" s="0" t="s">
-        <v>973</v>
       </c>
       <c r="C436" s="0" t="s">
         <v>9</v>
@@ -10782,15 +10779,15 @@
         <v>75</v>
       </c>
       <c r="G436" s="0" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
+        <v>974</v>
+      </c>
+      <c r="B437" s="0" t="s">
         <v>975</v>
-      </c>
-      <c r="B437" s="0" t="s">
-        <v>976</v>
       </c>
       <c r="C437" s="0" t="s">
         <v>9</v>
@@ -10802,15 +10799,15 @@
         <v>75</v>
       </c>
       <c r="G437" s="0" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="B438" s="0" t="s">
         <v>978</v>
-      </c>
-      <c r="B438" s="0" t="s">
-        <v>979</v>
       </c>
       <c r="C438" s="0" t="s">
         <v>9</v>
@@ -10822,15 +10819,15 @@
         <v>75</v>
       </c>
       <c r="G438" s="0" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="B439" s="0" t="s">
         <v>981</v>
-      </c>
-      <c r="B439" s="0" t="s">
-        <v>982</v>
       </c>
       <c r="C439" s="0" t="s">
         <v>9</v>
@@ -10842,15 +10839,15 @@
         <v>75</v>
       </c>
       <c r="G439" s="0" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
+        <v>983</v>
+      </c>
+      <c r="B440" s="0" t="s">
         <v>984</v>
-      </c>
-      <c r="B440" s="0" t="s">
-        <v>985</v>
       </c>
       <c r="C440" s="0" t="s">
         <v>9</v>
@@ -10862,15 +10859,15 @@
         <v>75</v>
       </c>
       <c r="G440" s="0" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
+        <v>986</v>
+      </c>
+      <c r="B441" s="0" t="s">
         <v>987</v>
-      </c>
-      <c r="B441" s="0" t="s">
-        <v>988</v>
       </c>
       <c r="C441" s="0" t="s">
         <v>9</v>
@@ -10884,10 +10881,10 @@
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C442" s="0" t="s">
         <v>9</v>
@@ -10899,15 +10896,15 @@
         <v>75</v>
       </c>
       <c r="G442" s="0" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="B443" s="0" t="s">
         <v>991</v>
-      </c>
-      <c r="B443" s="0" t="s">
-        <v>992</v>
       </c>
       <c r="C443" s="0" t="s">
         <v>9</v>
@@ -10919,15 +10916,15 @@
         <v>75</v>
       </c>
       <c r="G443" s="0" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="B444" s="0" t="s">
         <v>993</v>
-      </c>
-      <c r="B444" s="0" t="s">
-        <v>994</v>
       </c>
       <c r="C444" s="0" t="s">
         <v>9</v>
@@ -10939,15 +10936,15 @@
         <v>75</v>
       </c>
       <c r="G444" s="0" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="B445" s="0" t="s">
         <v>995</v>
-      </c>
-      <c r="B445" s="0" t="s">
-        <v>996</v>
       </c>
       <c r="C445" s="0" t="s">
         <v>9</v>
@@ -10959,15 +10956,15 @@
         <v>75</v>
       </c>
       <c r="G445" s="0" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="B446" s="0" t="s">
         <v>998</v>
-      </c>
-      <c r="B446" s="0" t="s">
-        <v>999</v>
       </c>
       <c r="C446" s="0" t="s">
         <v>9</v>
@@ -10979,15 +10976,15 @@
         <v>75</v>
       </c>
       <c r="G446" s="0" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B447" s="0" t="s">
         <v>1001</v>
-      </c>
-      <c r="B447" s="0" t="s">
-        <v>1002</v>
       </c>
       <c r="C447" s="0" t="s">
         <v>9</v>
@@ -10999,15 +10996,15 @@
         <v>550</v>
       </c>
       <c r="G447" s="0" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B448" s="0" t="s">
         <v>1004</v>
-      </c>
-      <c r="B448" s="0" t="s">
-        <v>1005</v>
       </c>
       <c r="C448" s="0" t="s">
         <v>9</v>
@@ -11019,15 +11016,15 @@
         <v>550</v>
       </c>
       <c r="G448" s="0" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B449" s="0" t="s">
         <v>1007</v>
-      </c>
-      <c r="B449" s="0" t="s">
-        <v>1008</v>
       </c>
       <c r="C449" s="0" t="s">
         <v>9</v>
@@ -11039,15 +11036,15 @@
         <v>550</v>
       </c>
       <c r="G449" s="0" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B450" s="0" t="s">
         <v>1010</v>
-      </c>
-      <c r="B450" s="0" t="s">
-        <v>1011</v>
       </c>
       <c r="C450" s="0" t="s">
         <v>9</v>
@@ -11059,15 +11056,15 @@
         <v>550</v>
       </c>
       <c r="G450" s="0" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B451" s="0" t="s">
         <v>1013</v>
-      </c>
-      <c r="B451" s="0" t="s">
-        <v>1014</v>
       </c>
       <c r="C451" s="0" t="s">
         <v>9</v>
@@ -11079,15 +11076,15 @@
         <v>550</v>
       </c>
       <c r="G451" s="0" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B452" s="0" t="s">
         <v>1015</v>
-      </c>
-      <c r="B452" s="0" t="s">
-        <v>1016</v>
       </c>
       <c r="C452" s="0" t="s">
         <v>9</v>
@@ -11099,15 +11096,15 @@
         <v>550</v>
       </c>
       <c r="G452" s="0" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B453" s="0" t="s">
         <v>1017</v>
-      </c>
-      <c r="B453" s="0" t="s">
-        <v>1018</v>
       </c>
       <c r="C453" s="0" t="s">
         <v>9</v>
@@ -11119,15 +11116,15 @@
         <v>550</v>
       </c>
       <c r="G453" s="0" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B454" s="0" t="s">
         <v>1019</v>
-      </c>
-      <c r="B454" s="0" t="s">
-        <v>1020</v>
       </c>
       <c r="C454" s="0" t="s">
         <v>9</v>
@@ -11139,15 +11136,15 @@
         <v>550</v>
       </c>
       <c r="G454" s="0" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B455" s="0" t="s">
         <v>1021</v>
-      </c>
-      <c r="B455" s="0" t="s">
-        <v>1022</v>
       </c>
       <c r="C455" s="0" t="s">
         <v>9</v>
@@ -11159,15 +11156,15 @@
         <v>550</v>
       </c>
       <c r="G455" s="0" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B456" s="0" t="s">
         <v>1023</v>
-      </c>
-      <c r="B456" s="0" t="s">
-        <v>1024</v>
       </c>
       <c r="C456" s="0" t="s">
         <v>9</v>
@@ -11179,15 +11176,15 @@
         <v>559</v>
       </c>
       <c r="G456" s="0" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B457" s="0" t="s">
         <v>1026</v>
-      </c>
-      <c r="B457" s="0" t="s">
-        <v>1027</v>
       </c>
       <c r="C457" s="0" t="s">
         <v>9</v>
@@ -11201,10 +11198,10 @@
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B458" s="0" t="s">
         <v>1028</v>
-      </c>
-      <c r="B458" s="0" t="s">
-        <v>1029</v>
       </c>
       <c r="C458" s="0" t="s">
         <v>9</v>
@@ -11218,10 +11215,10 @@
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B459" s="0" t="s">
         <v>1030</v>
-      </c>
-      <c r="B459" s="0" t="s">
-        <v>1031</v>
       </c>
       <c r="C459" s="0" t="s">
         <v>9</v>
@@ -11235,10 +11232,10 @@
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B460" s="0" t="s">
         <v>1032</v>
-      </c>
-      <c r="B460" s="0" t="s">
-        <v>1033</v>
       </c>
       <c r="C460" s="0" t="s">
         <v>9</v>
@@ -11252,10 +11249,10 @@
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B461" s="0" t="s">
         <v>1034</v>
-      </c>
-      <c r="B461" s="0" t="s">
-        <v>1035</v>
       </c>
       <c r="C461" s="0" t="s">
         <v>9</v>
@@ -11267,15 +11264,15 @@
         <v>75</v>
       </c>
       <c r="G461" s="0" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B462" s="0" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C462" s="0" t="s">
         <v>9</v>
@@ -11287,15 +11284,15 @@
         <v>75</v>
       </c>
       <c r="G462" s="0" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B463" s="0" t="s">
         <v>1039</v>
-      </c>
-      <c r="B463" s="0" t="s">
-        <v>1040</v>
       </c>
       <c r="C463" s="0" t="s">
         <v>9</v>
@@ -11309,10 +11306,10 @@
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B464" s="0" t="s">
         <v>1041</v>
-      </c>
-      <c r="B464" s="0" t="s">
-        <v>1042</v>
       </c>
       <c r="C464" s="0" t="s">
         <v>9</v>
@@ -11326,10 +11323,10 @@
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B465" s="0" t="s">
         <v>1043</v>
-      </c>
-      <c r="B465" s="0" t="s">
-        <v>1044</v>
       </c>
       <c r="C465" s="0" t="s">
         <v>9</v>
@@ -11343,10 +11340,10 @@
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B466" s="0" t="s">
         <v>1045</v>
-      </c>
-      <c r="B466" s="0" t="s">
-        <v>1046</v>
       </c>
       <c r="C466" s="0" t="s">
         <v>9</v>
@@ -11358,15 +11355,15 @@
         <v>75</v>
       </c>
       <c r="G466" s="0" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B467" s="0" t="s">
         <v>1048</v>
-      </c>
-      <c r="B467" s="0" t="s">
-        <v>1049</v>
       </c>
       <c r="C467" s="0" t="s">
         <v>9</v>
@@ -11380,10 +11377,10 @@
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B468" s="0" t="s">
         <v>1050</v>
-      </c>
-      <c r="B468" s="0" t="s">
-        <v>1051</v>
       </c>
       <c r="C468" s="0" t="s">
         <v>9</v>
@@ -11397,10 +11394,10 @@
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B469" s="0" t="s">
         <v>1052</v>
-      </c>
-      <c r="B469" s="0" t="s">
-        <v>1053</v>
       </c>
       <c r="C469" s="0" t="s">
         <v>9</v>
@@ -11414,10 +11411,10 @@
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B470" s="0" t="s">
         <v>1054</v>
-      </c>
-      <c r="B470" s="0" t="s">
-        <v>1055</v>
       </c>
       <c r="C470" s="0" t="s">
         <v>9</v>
@@ -11431,10 +11428,10 @@
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B471" s="0" t="s">
         <v>1056</v>
-      </c>
-      <c r="B471" s="0" t="s">
-        <v>1057</v>
       </c>
       <c r="C471" s="0" t="s">
         <v>9</v>
@@ -11448,10 +11445,10 @@
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B472" s="0" t="s">
         <v>1058</v>
-      </c>
-      <c r="B472" s="0" t="s">
-        <v>1059</v>
       </c>
       <c r="C472" s="0" t="s">
         <v>9</v>
@@ -11468,10 +11465,10 @@
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B473" s="0" t="s">
         <v>1060</v>
-      </c>
-      <c r="B473" s="0" t="s">
-        <v>1061</v>
       </c>
       <c r="C473" s="0" t="s">
         <v>9</v>
@@ -11483,15 +11480,15 @@
         <v>75</v>
       </c>
       <c r="G473" s="0" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B474" s="0" t="s">
         <v>1063</v>
-      </c>
-      <c r="B474" s="0" t="s">
-        <v>1064</v>
       </c>
       <c r="C474" s="0" t="s">
         <v>9</v>
@@ -11505,10 +11502,10 @@
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B475" s="0" t="s">
         <v>1065</v>
-      </c>
-      <c r="B475" s="0" t="s">
-        <v>1066</v>
       </c>
       <c r="C475" s="0" t="s">
         <v>9</v>
@@ -11522,10 +11519,10 @@
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B476" s="0" t="s">
         <v>1067</v>
-      </c>
-      <c r="B476" s="0" t="s">
-        <v>1068</v>
       </c>
       <c r="C476" s="0" t="s">
         <v>9</v>
@@ -11539,10 +11536,10 @@
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B477" s="0" t="s">
         <v>1069</v>
-      </c>
-      <c r="B477" s="0" t="s">
-        <v>1070</v>
       </c>
       <c r="C477" s="0" t="s">
         <v>9</v>
@@ -11556,10 +11553,10 @@
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B478" s="0" t="s">
         <v>1071</v>
-      </c>
-      <c r="B478" s="0" t="s">
-        <v>1072</v>
       </c>
       <c r="C478" s="0" t="s">
         <v>9</v>
@@ -11571,15 +11568,15 @@
         <v>75</v>
       </c>
       <c r="G478" s="0" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="0" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B479" s="0" t="s">
         <v>1074</v>
-      </c>
-      <c r="B479" s="0" t="s">
-        <v>1075</v>
       </c>
       <c r="C479" s="0" t="s">
         <v>9</v>
@@ -11591,15 +11588,15 @@
         <v>75</v>
       </c>
       <c r="G479" s="0" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B480" s="0" t="s">
         <v>1077</v>
-      </c>
-      <c r="B480" s="0" t="s">
-        <v>1078</v>
       </c>
       <c r="C480" s="0" t="s">
         <v>9</v>
@@ -11613,10 +11610,10 @@
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="0" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B481" s="0" t="s">
         <v>1079</v>
-      </c>
-      <c r="B481" s="0" t="s">
-        <v>1080</v>
       </c>
       <c r="C481" s="0" t="s">
         <v>9</v>
@@ -11630,10 +11627,10 @@
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B482" s="0" t="s">
         <v>1081</v>
-      </c>
-      <c r="B482" s="0" t="s">
-        <v>1082</v>
       </c>
       <c r="C482" s="0" t="s">
         <v>9</v>
@@ -11647,10 +11644,10 @@
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="0" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B483" s="0" t="s">
         <v>1083</v>
-      </c>
-      <c r="B483" s="0" t="s">
-        <v>1084</v>
       </c>
       <c r="C483" s="0" t="s">
         <v>9</v>
@@ -11662,15 +11659,15 @@
         <v>75</v>
       </c>
       <c r="G483" s="0" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B484" s="0" t="s">
         <v>1086</v>
-      </c>
-      <c r="B484" s="0" t="s">
-        <v>1087</v>
       </c>
       <c r="C484" s="0" t="s">
         <v>9</v>
@@ -11682,15 +11679,15 @@
         <v>75</v>
       </c>
       <c r="G484" s="0" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B485" s="0" t="s">
         <v>1089</v>
-      </c>
-      <c r="B485" s="0" t="s">
-        <v>1090</v>
       </c>
       <c r="C485" s="0" t="s">
         <v>9</v>
@@ -11704,10 +11701,10 @@
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="0" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B486" s="0" t="s">
         <v>1091</v>
-      </c>
-      <c r="B486" s="0" t="s">
-        <v>1092</v>
       </c>
       <c r="C486" s="0" t="s">
         <v>9</v>
@@ -11721,10 +11718,10 @@
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B487" s="0" t="s">
         <v>1093</v>
-      </c>
-      <c r="B487" s="0" t="s">
-        <v>1094</v>
       </c>
       <c r="C487" s="0" t="s">
         <v>9</v>
@@ -11741,10 +11738,10 @@
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B488" s="0" t="s">
         <v>1095</v>
-      </c>
-      <c r="B488" s="0" t="s">
-        <v>1096</v>
       </c>
       <c r="C488" s="0" t="s">
         <v>9</v>
@@ -11758,10 +11755,10 @@
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="0" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B489" s="0" t="s">
         <v>1097</v>
-      </c>
-      <c r="B489" s="0" t="s">
-        <v>1098</v>
       </c>
       <c r="C489" s="0" t="s">
         <v>9</v>
@@ -11775,10 +11772,10 @@
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B490" s="0" t="s">
         <v>1099</v>
-      </c>
-      <c r="B490" s="0" t="s">
-        <v>1100</v>
       </c>
       <c r="C490" s="0" t="s">
         <v>9</v>
@@ -11790,15 +11787,15 @@
         <v>75</v>
       </c>
       <c r="G490" s="0" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="0" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B491" s="0" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C491" s="0" t="s">
         <v>9</v>
@@ -11810,15 +11807,15 @@
         <v>75</v>
       </c>
       <c r="G491" s="0" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B492" s="0" t="s">
         <v>1103</v>
-      </c>
-      <c r="B492" s="0" t="s">
-        <v>1104</v>
       </c>
       <c r="C492" s="0" t="s">
         <v>9</v>
@@ -11835,10 +11832,10 @@
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="0" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B493" s="0" t="s">
         <v>1105</v>
-      </c>
-      <c r="B493" s="0" t="s">
-        <v>1106</v>
       </c>
       <c r="C493" s="0" t="s">
         <v>9</v>
@@ -11850,15 +11847,15 @@
         <v>75</v>
       </c>
       <c r="G493" s="0" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="0" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B494" s="0" t="s">
         <v>1108</v>
-      </c>
-      <c r="B494" s="0" t="s">
-        <v>1109</v>
       </c>
       <c r="C494" s="0" t="s">
         <v>9</v>
@@ -11870,15 +11867,15 @@
         <v>75</v>
       </c>
       <c r="G494" s="0" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="0" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B495" s="0" t="s">
         <v>1111</v>
-      </c>
-      <c r="B495" s="0" t="s">
-        <v>1112</v>
       </c>
       <c r="C495" s="0" t="s">
         <v>9</v>
@@ -11892,10 +11889,10 @@
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="0" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B496" s="0" t="s">
         <v>1113</v>
-      </c>
-      <c r="B496" s="0" t="s">
-        <v>1114</v>
       </c>
       <c r="C496" s="0" t="s">
         <v>9</v>
@@ -11909,10 +11906,10 @@
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="0" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B497" s="0" t="s">
         <v>1115</v>
-      </c>
-      <c r="B497" s="0" t="s">
-        <v>1116</v>
       </c>
       <c r="C497" s="0" t="s">
         <v>9</v>
@@ -11926,10 +11923,10 @@
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="0" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B498" s="0" t="s">
         <v>1117</v>
-      </c>
-      <c r="B498" s="0" t="s">
-        <v>1118</v>
       </c>
       <c r="C498" s="0" t="s">
         <v>9</v>
@@ -11943,10 +11940,10 @@
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B499" s="0" t="s">
         <v>1119</v>
-      </c>
-      <c r="B499" s="0" t="s">
-        <v>1120</v>
       </c>
       <c r="C499" s="0" t="s">
         <v>9</v>
@@ -11960,10 +11957,10 @@
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="0" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B500" s="0" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C500" s="0" t="s">
         <v>9</v>
@@ -11975,15 +11972,15 @@
         <v>75</v>
       </c>
       <c r="G500" s="0" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="0" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B501" s="0" t="s">
         <v>1122</v>
-      </c>
-      <c r="B501" s="0" t="s">
-        <v>1123</v>
       </c>
       <c r="C501" s="0" t="s">
         <v>9</v>
@@ -11997,10 +11994,10 @@
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="0" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B502" s="0" t="s">
         <v>1124</v>
-      </c>
-      <c r="B502" s="0" t="s">
-        <v>1125</v>
       </c>
       <c r="C502" s="0" t="s">
         <v>9</v>
@@ -12014,10 +12011,10 @@
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B503" s="0" t="s">
         <v>1126</v>
-      </c>
-      <c r="B503" s="0" t="s">
-        <v>1127</v>
       </c>
       <c r="C503" s="0" t="s">
         <v>9</v>
@@ -12031,10 +12028,10 @@
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="0" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B504" s="0" t="s">
         <v>1128</v>
-      </c>
-      <c r="B504" s="0" t="s">
-        <v>1129</v>
       </c>
       <c r="C504" s="0" t="s">
         <v>9</v>
@@ -12048,10 +12045,10 @@
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B505" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C505" s="0" t="s">
         <v>9</v>
@@ -12063,278 +12060,278 @@
         <v>16</v>
       </c>
       <c r="F505" s="0" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G505" s="0" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B506" s="0" t="s">
         <v>1132</v>
       </c>
-      <c r="B506" s="0" t="s">
+      <c r="C506" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D506" s="0" t="s">
         <v>1133</v>
-      </c>
-      <c r="C506" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D506" s="0" t="s">
-        <v>1134</v>
       </c>
       <c r="E506" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G506" s="0" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="0" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B507" s="0" t="s">
         <v>1136</v>
       </c>
-      <c r="B507" s="0" t="s">
-        <v>1137</v>
-      </c>
       <c r="C507" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D507" s="0" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E507" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G507" s="0" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="0" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B508" s="0" t="s">
         <v>1139</v>
       </c>
-      <c r="B508" s="0" t="s">
-        <v>1140</v>
-      </c>
       <c r="C508" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D508" s="0" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E508" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G508" s="0" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="0" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B509" s="0" t="s">
         <v>1141</v>
       </c>
-      <c r="B509" s="0" t="s">
-        <v>1142</v>
-      </c>
       <c r="C509" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D509" s="0" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E509" s="0" t="s">
         <v>550</v>
       </c>
       <c r="G509" s="0" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="0" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B510" s="0" t="s">
         <v>1144</v>
       </c>
-      <c r="B510" s="0" t="s">
-        <v>1145</v>
-      </c>
       <c r="C510" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D510" s="0" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E510" s="0" t="s">
         <v>550</v>
       </c>
       <c r="G510" s="0" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="0" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B511" s="0" t="s">
         <v>1147</v>
       </c>
-      <c r="B511" s="0" t="s">
-        <v>1148</v>
-      </c>
       <c r="C511" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D511" s="0" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E511" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G511" s="0" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="0" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B512" s="0" t="s">
         <v>1150</v>
       </c>
-      <c r="B512" s="0" t="s">
-        <v>1151</v>
-      </c>
       <c r="C512" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D512" s="0" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E512" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G512" s="0" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="0" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B513" s="0" t="s">
         <v>1153</v>
       </c>
-      <c r="B513" s="0" t="s">
-        <v>1154</v>
-      </c>
       <c r="C513" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D513" s="0" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E513" s="0" t="s">
         <v>550</v>
       </c>
       <c r="G513" s="0" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="0" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B514" s="0" t="s">
         <v>1156</v>
       </c>
-      <c r="B514" s="0" t="s">
-        <v>1157</v>
-      </c>
       <c r="C514" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D514" s="0" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E514" s="0" t="s">
         <v>550</v>
       </c>
       <c r="G514" s="0" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B515" s="0" t="s">
         <v>1159</v>
       </c>
-      <c r="B515" s="0" t="s">
-        <v>1160</v>
-      </c>
       <c r="C515" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D515" s="0" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E515" s="0" t="s">
         <v>550</v>
       </c>
       <c r="G515" s="0" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B516" s="0" t="s">
         <v>1162</v>
       </c>
-      <c r="B516" s="0" t="s">
-        <v>1163</v>
-      </c>
       <c r="C516" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D516" s="0" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E516" s="0" t="s">
         <v>550</v>
       </c>
       <c r="G516" s="0" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="0" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B517" s="0" t="s">
         <v>1165</v>
       </c>
-      <c r="B517" s="0" t="s">
-        <v>1166</v>
-      </c>
       <c r="C517" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D517" s="0" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E517" s="0" t="s">
         <v>550</v>
       </c>
       <c r="G517" s="0" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="0" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B518" s="0" t="s">
         <v>1168</v>
       </c>
-      <c r="B518" s="0" t="s">
-        <v>1169</v>
-      </c>
       <c r="C518" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D518" s="0" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E518" s="0" t="s">
         <v>550</v>
       </c>
       <c r="G518" s="0" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="0" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B519" s="0" t="s">
         <v>1171</v>
-      </c>
-      <c r="B519" s="0" t="s">
-        <v>1172</v>
       </c>
       <c r="C519" s="0" t="s">
         <v>9</v>
@@ -12346,15 +12343,15 @@
         <v>75</v>
       </c>
       <c r="G519" s="0" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="0" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B520" s="0" t="s">
         <v>1174</v>
-      </c>
-      <c r="B520" s="0" t="s">
-        <v>1175</v>
       </c>
       <c r="C520" s="0" t="s">
         <v>9</v>
@@ -12366,15 +12363,15 @@
         <v>75</v>
       </c>
       <c r="G520" s="0" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="0" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B521" s="0" t="s">
         <v>1177</v>
-      </c>
-      <c r="B521" s="0" t="s">
-        <v>1178</v>
       </c>
       <c r="C521" s="0" t="s">
         <v>9</v>
@@ -12383,15 +12380,15 @@
         <v>565</v>
       </c>
       <c r="G521" s="0" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="0" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B522" s="0" t="s">
         <v>1180</v>
-      </c>
-      <c r="B522" s="0" t="s">
-        <v>1181</v>
       </c>
       <c r="C522" s="0" t="s">
         <v>9</v>
@@ -12400,15 +12397,15 @@
         <v>565</v>
       </c>
       <c r="G522" s="0" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="0" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B523" s="0" t="s">
         <v>1183</v>
-      </c>
-      <c r="B523" s="0" t="s">
-        <v>1184</v>
       </c>
       <c r="C523" s="0" t="s">
         <v>9</v>
@@ -12422,10 +12419,10 @@
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="0" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B524" s="0" t="s">
         <v>1185</v>
-      </c>
-      <c r="B524" s="0" t="s">
-        <v>1186</v>
       </c>
       <c r="C524" s="0" t="s">
         <v>9</v>
@@ -12439,10 +12436,10 @@
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="0" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B525" s="0" t="s">
         <v>1187</v>
-      </c>
-      <c r="B525" s="0" t="s">
-        <v>1188</v>
       </c>
       <c r="C525" s="0" t="s">
         <v>9</v>
@@ -12456,10 +12453,10 @@
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="0" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B526" s="0" t="s">
         <v>1189</v>
-      </c>
-      <c r="B526" s="0" t="s">
-        <v>1190</v>
       </c>
       <c r="C526" s="0" t="s">
         <v>9</v>
@@ -12473,10 +12470,10 @@
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="0" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B527" s="0" t="s">
         <v>1191</v>
-      </c>
-      <c r="B527" s="0" t="s">
-        <v>1192</v>
       </c>
       <c r="C527" s="0" t="s">
         <v>9</v>
@@ -12490,10 +12487,10 @@
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="0" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B528" s="0" t="s">
         <v>1193</v>
-      </c>
-      <c r="B528" s="0" t="s">
-        <v>1194</v>
       </c>
       <c r="C528" s="0" t="s">
         <v>9</v>
@@ -12507,90 +12504,90 @@
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="0" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B529" s="0" t="s">
         <v>1195</v>
       </c>
-      <c r="B529" s="0" t="s">
-        <v>1196</v>
-      </c>
       <c r="C529" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D529" s="0" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E529" s="0" t="s">
         <v>75</v>
       </c>
       <c r="G529" s="0" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="0" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B530" s="0" t="s">
         <v>1198</v>
       </c>
-      <c r="B530" s="0" t="s">
-        <v>1199</v>
-      </c>
       <c r="C530" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D530" s="0" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E530" s="0" t="s">
         <v>75</v>
       </c>
       <c r="G530" s="0" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="0" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B531" s="0" t="s">
+        <v>865</v>
+      </c>
+      <c r="C531" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D531" s="0" t="s">
         <v>866</v>
-      </c>
-      <c r="C531" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D531" s="0" t="s">
-        <v>867</v>
       </c>
       <c r="E531" s="0" t="s">
         <v>75</v>
       </c>
       <c r="G531" s="0" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B532" s="0" t="s">
+        <v>865</v>
+      </c>
+      <c r="C532" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D532" s="0" t="s">
         <v>866</v>
-      </c>
-      <c r="C532" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D532" s="0" t="s">
-        <v>867</v>
       </c>
       <c r="E532" s="0" t="s">
         <v>75</v>
       </c>
       <c r="G532" s="0" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="0" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B533" s="0" t="s">
         <v>1205</v>
-      </c>
-      <c r="B533" s="0" t="s">
-        <v>1206</v>
       </c>
       <c r="C533" s="0" t="s">
         <v>9</v>
@@ -12607,10 +12604,10 @@
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B534" s="0" t="s">
         <v>1207</v>
-      </c>
-      <c r="B534" s="0" t="s">
-        <v>1208</v>
       </c>
       <c r="C534" s="0" t="s">
         <v>9</v>
@@ -12622,12 +12619,12 @@
         <v>16</v>
       </c>
       <c r="F534" s="0" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B535" s="2" t="n">
         <v>2122</v>
@@ -12639,18 +12636,18 @@
         <v>169</v>
       </c>
       <c r="E535" s="0" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G535" s="0" t="s">
         <v>1210</v>
-      </c>
-      <c r="G535" s="0" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B536" s="0" t="s">
         <v>1212</v>
-      </c>
-      <c r="B536" s="0" t="s">
-        <v>1213</v>
       </c>
       <c r="C536" s="0" t="s">
         <v>9</v>
@@ -12659,15 +12656,15 @@
         <v>15</v>
       </c>
       <c r="G536" s="0" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B537" s="0" t="s">
         <v>1215</v>
-      </c>
-      <c r="B537" s="0" t="s">
-        <v>1216</v>
       </c>
       <c r="C537" s="0" t="s">
         <v>9</v>
@@ -12679,18 +12676,18 @@
         <v>16</v>
       </c>
       <c r="F537" s="0" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G537" s="0" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="0" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B538" s="0" t="s">
         <v>1218</v>
-      </c>
-      <c r="B538" s="0" t="s">
-        <v>1219</v>
       </c>
       <c r="C538" s="0" t="s">
         <v>9</v>
@@ -12699,7 +12696,7 @@
         <v>373</v>
       </c>
       <c r="G538" s="0" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
   </sheetData>

--- a/data/01_meta/data/raw/C_maxima_GBS_accession.xlsx
+++ b/data/01_meta/data/raw/C_maxima_GBS_accession.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="1220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="1218">
   <si>
     <t xml:space="preserve">Plant Accession</t>
   </si>
@@ -1771,9 +1771,6 @@
     <t xml:space="preserve">'Sibley'</t>
   </si>
   <si>
-    <t xml:space="preserve">Banana</t>
-  </si>
-  <si>
     <t xml:space="preserve">G_11299</t>
   </si>
   <si>
@@ -2021,9 +2018,6 @@
   </si>
   <si>
     <t xml:space="preserve">'Buckskin'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processing</t>
   </si>
   <si>
     <t xml:space="preserve">G_32711</t>
@@ -3798,11 +3792,11 @@
   </sheetPr>
   <dimension ref="A1:G538"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A236" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D251" activeCellId="0" sqref="D251"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E198" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G214" activeCellId="0" sqref="G214"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.8"/>
@@ -7875,16 +7869,13 @@
       <c r="E252" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F252" s="0" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="B253" s="0" t="s">
         <v>584</v>
-      </c>
-      <c r="B253" s="0" t="s">
-        <v>585</v>
       </c>
       <c r="C253" s="0" t="s">
         <v>9</v>
@@ -7896,15 +7887,15 @@
         <v>16</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="B254" s="0" t="s">
         <v>587</v>
-      </c>
-      <c r="B254" s="0" t="s">
-        <v>588</v>
       </c>
       <c r="C254" s="0" t="s">
         <v>9</v>
@@ -7918,16 +7909,16 @@
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="B255" s="0" t="s">
         <v>589</v>
       </c>
-      <c r="B255" s="0" t="s">
+      <c r="C255" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D255" s="0" t="s">
         <v>590</v>
-      </c>
-      <c r="C255" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D255" s="0" t="s">
-        <v>591</v>
       </c>
       <c r="E255" s="0" t="s">
         <v>16</v>
@@ -7935,16 +7926,16 @@
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="B256" s="0" t="s">
         <v>592</v>
       </c>
-      <c r="B256" s="0" t="s">
-        <v>593</v>
-      </c>
       <c r="C256" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D256" s="0" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E256" s="0" t="s">
         <v>16</v>
@@ -7952,10 +7943,10 @@
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="B257" s="0" t="s">
         <v>594</v>
-      </c>
-      <c r="B257" s="0" t="s">
-        <v>595</v>
       </c>
       <c r="C257" s="0" t="s">
         <v>9</v>
@@ -7972,10 +7963,10 @@
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="B258" s="0" t="s">
         <v>596</v>
-      </c>
-      <c r="B258" s="0" t="s">
-        <v>597</v>
       </c>
       <c r="C258" s="0" t="s">
         <v>9</v>
@@ -7992,10 +7983,10 @@
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="B259" s="0" t="s">
         <v>598</v>
-      </c>
-      <c r="B259" s="0" t="s">
-        <v>599</v>
       </c>
       <c r="C259" s="0" t="s">
         <v>9</v>
@@ -8012,7 +8003,7 @@
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B260" s="0" t="s">
         <v>48</v>
@@ -8032,10 +8023,10 @@
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="B261" s="0" t="s">
         <v>601</v>
-      </c>
-      <c r="B261" s="0" t="s">
-        <v>602</v>
       </c>
       <c r="C261" s="0" t="s">
         <v>9</v>
@@ -8047,21 +8038,21 @@
         <v>16</v>
       </c>
       <c r="F261" s="0" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B262" s="0" t="s">
         <v>603</v>
       </c>
-      <c r="B262" s="0" t="s">
+      <c r="C262" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D262" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="C262" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D262" s="0" t="s">
-        <v>605</v>
       </c>
       <c r="E262" s="0" t="s">
         <v>16</v>
@@ -8069,10 +8060,10 @@
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="B263" s="0" t="s">
         <v>606</v>
-      </c>
-      <c r="B263" s="0" t="s">
-        <v>607</v>
       </c>
       <c r="C263" s="0" t="s">
         <v>9</v>
@@ -8086,10 +8077,10 @@
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="B264" s="0" t="s">
         <v>608</v>
-      </c>
-      <c r="B264" s="0" t="s">
-        <v>609</v>
       </c>
       <c r="C264" s="0" t="s">
         <v>9</v>
@@ -8103,10 +8094,10 @@
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="B265" s="0" t="s">
         <v>610</v>
-      </c>
-      <c r="B265" s="0" t="s">
-        <v>611</v>
       </c>
       <c r="C265" s="0" t="s">
         <v>9</v>
@@ -8118,15 +8109,15 @@
         <v>16</v>
       </c>
       <c r="F265" s="0" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="B266" s="0" t="s">
         <v>613</v>
-      </c>
-      <c r="B266" s="0" t="s">
-        <v>614</v>
       </c>
       <c r="C266" s="0" t="s">
         <v>9</v>
@@ -8140,16 +8131,16 @@
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="B267" s="0" t="s">
         <v>615</v>
       </c>
-      <c r="B267" s="0" t="s">
+      <c r="C267" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D267" s="0" t="s">
         <v>616</v>
-      </c>
-      <c r="C267" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D267" s="0" t="s">
-        <v>617</v>
       </c>
       <c r="E267" s="0" t="s">
         <v>550</v>
@@ -8157,36 +8148,36 @@
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="B268" s="0" t="s">
         <v>618</v>
       </c>
-      <c r="B268" s="0" t="s">
-        <v>619</v>
-      </c>
       <c r="C268" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D268" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E268" s="0" t="s">
         <v>550</v>
       </c>
       <c r="G268" s="0" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="B269" s="0" t="s">
         <v>621</v>
       </c>
-      <c r="B269" s="0" t="s">
+      <c r="C269" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D269" s="0" t="s">
         <v>622</v>
-      </c>
-      <c r="C269" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D269" s="0" t="s">
-        <v>623</v>
       </c>
       <c r="E269" s="0" t="s">
         <v>16</v>
@@ -8194,16 +8185,16 @@
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="B270" s="0" t="s">
         <v>624</v>
       </c>
-      <c r="B270" s="0" t="s">
-        <v>625</v>
-      </c>
       <c r="C270" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D270" s="0" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E270" s="0" t="s">
         <v>16</v>
@@ -8211,70 +8202,70 @@
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="B271" s="0" t="s">
         <v>626</v>
       </c>
-      <c r="B271" s="0" t="s">
+      <c r="C271" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D271" s="0" t="s">
         <v>627</v>
-      </c>
-      <c r="C271" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D271" s="0" t="s">
-        <v>628</v>
       </c>
       <c r="E271" s="0" t="s">
         <v>75</v>
       </c>
       <c r="G271" s="0" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="B272" s="0" t="s">
         <v>630</v>
       </c>
-      <c r="B272" s="0" t="s">
-        <v>631</v>
-      </c>
       <c r="C272" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D272" s="0" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E272" s="0" t="s">
         <v>75</v>
       </c>
       <c r="G272" s="0" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="B273" s="0" t="s">
         <v>633</v>
       </c>
-      <c r="B273" s="0" t="s">
-        <v>634</v>
-      </c>
       <c r="C273" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D273" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E273" s="0" t="s">
         <v>550</v>
       </c>
       <c r="G273" s="0" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="B274" s="0" t="s">
         <v>636</v>
-      </c>
-      <c r="B274" s="0" t="s">
-        <v>637</v>
       </c>
       <c r="C274" s="0" t="s">
         <v>9</v>
@@ -8286,15 +8277,15 @@
         <v>16</v>
       </c>
       <c r="F274" s="0" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="B275" s="0" t="s">
         <v>639</v>
-      </c>
-      <c r="B275" s="0" t="s">
-        <v>640</v>
       </c>
       <c r="C275" s="0" t="s">
         <v>9</v>
@@ -8306,15 +8297,15 @@
         <v>16</v>
       </c>
       <c r="F275" s="0" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="B276" s="0" t="s">
         <v>641</v>
-      </c>
-      <c r="B276" s="0" t="s">
-        <v>642</v>
       </c>
       <c r="C276" s="0" t="s">
         <v>9</v>
@@ -8326,15 +8317,15 @@
         <v>16</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="B277" s="0" t="s">
         <v>643</v>
-      </c>
-      <c r="B277" s="0" t="s">
-        <v>644</v>
       </c>
       <c r="C277" s="0" t="s">
         <v>9</v>
@@ -8346,15 +8337,15 @@
         <v>16</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="B278" s="0" t="s">
         <v>645</v>
-      </c>
-      <c r="B278" s="0" t="s">
-        <v>646</v>
       </c>
       <c r="C278" s="0" t="s">
         <v>9</v>
@@ -8366,15 +8357,15 @@
         <v>16</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="B279" s="0" t="s">
         <v>647</v>
-      </c>
-      <c r="B279" s="0" t="s">
-        <v>648</v>
       </c>
       <c r="C279" s="0" t="s">
         <v>9</v>
@@ -8385,10 +8376,10 @@
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="B280" s="0" t="s">
         <v>649</v>
-      </c>
-      <c r="B280" s="0" t="s">
-        <v>650</v>
       </c>
       <c r="C280" s="0" t="s">
         <v>9</v>
@@ -8399,86 +8390,86 @@
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="B281" s="0" t="s">
         <v>651</v>
       </c>
-      <c r="B281" s="0" t="s">
+      <c r="C281" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D281" s="0" t="s">
         <v>652</v>
-      </c>
-      <c r="C281" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D281" s="0" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="B282" s="0" t="s">
         <v>654</v>
       </c>
-      <c r="B282" s="0" t="s">
-        <v>655</v>
-      </c>
       <c r="C282" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D282" s="0" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="B283" s="0" t="s">
         <v>656</v>
       </c>
-      <c r="B283" s="0" t="s">
-        <v>657</v>
-      </c>
       <c r="C283" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D283" s="0" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="B284" s="0" t="s">
         <v>658</v>
       </c>
-      <c r="B284" s="0" t="s">
-        <v>659</v>
-      </c>
       <c r="C284" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D284" s="0" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="B285" s="0" t="s">
         <v>660</v>
       </c>
-      <c r="B285" s="0" t="s">
-        <v>661</v>
-      </c>
       <c r="C285" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D285" s="0" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="B286" s="0" t="s">
         <v>662</v>
       </c>
-      <c r="B286" s="0" t="s">
+      <c r="C286" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D286" s="0" t="s">
         <v>663</v>
-      </c>
-      <c r="C286" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D286" s="0" t="s">
-        <v>664</v>
       </c>
       <c r="E286" s="0" t="s">
         <v>16</v>
@@ -8486,10 +8477,10 @@
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="B287" s="0" t="s">
         <v>665</v>
-      </c>
-      <c r="B287" s="0" t="s">
-        <v>666</v>
       </c>
       <c r="C287" s="0" t="s">
         <v>9</v>
@@ -8500,16 +8491,14 @@
       <c r="E287" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F287" s="3" t="s">
-        <v>667</v>
-      </c>
+      <c r="F287" s="3"/>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C288" s="0" t="s">
         <v>9</v>
@@ -8523,10 +8512,10 @@
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C289" s="0" t="s">
         <v>9</v>
@@ -8538,38 +8527,38 @@
         <v>16</v>
       </c>
       <c r="F289" s="0" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G289" s="0" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C290" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D290" s="0" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E290" s="0" t="s">
         <v>16</v>
       </c>
       <c r="F290" s="0" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C291" s="0" t="s">
         <v>9</v>
@@ -8580,10 +8569,10 @@
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C292" s="0" t="s">
         <v>9</v>
@@ -8594,10 +8583,10 @@
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C293" s="0" t="s">
         <v>9</v>
@@ -8606,15 +8595,15 @@
         <v>10</v>
       </c>
       <c r="G293" s="0" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C294" s="0" t="s">
         <v>9</v>
@@ -8623,15 +8612,15 @@
         <v>10</v>
       </c>
       <c r="G294" s="0" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C295" s="0" t="s">
         <v>9</v>
@@ -8640,15 +8629,15 @@
         <v>10</v>
       </c>
       <c r="G295" s="0" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C296" s="0" t="s">
         <v>9</v>
@@ -8657,15 +8646,15 @@
         <v>10</v>
       </c>
       <c r="G296" s="0" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C297" s="0" t="s">
         <v>9</v>
@@ -8674,15 +8663,15 @@
         <v>10</v>
       </c>
       <c r="G297" s="0" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C298" s="0" t="s">
         <v>9</v>
@@ -8691,15 +8680,15 @@
         <v>10</v>
       </c>
       <c r="G298" s="0" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C299" s="0" t="s">
         <v>9</v>
@@ -8708,15 +8697,15 @@
         <v>212</v>
       </c>
       <c r="G299" s="0" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C300" s="0" t="s">
         <v>9</v>
@@ -8725,15 +8714,15 @@
         <v>212</v>
       </c>
       <c r="G300" s="0" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C301" s="0" t="s">
         <v>9</v>
@@ -8742,54 +8731,54 @@
         <v>212</v>
       </c>
       <c r="G301" s="0" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="B302" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="C302" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D302" s="0" t="s">
         <v>706</v>
-      </c>
-      <c r="B302" s="0" t="s">
-        <v>707</v>
-      </c>
-      <c r="C302" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D302" s="0" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C303" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D303" s="0" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C304" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D304" s="0" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B305" s="0" t="s">
         <v>86</v>
@@ -8801,12 +8790,12 @@
         <v>114</v>
       </c>
       <c r="G305" s="0" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B306" s="0" t="s">
         <v>86</v>
@@ -8818,15 +8807,15 @@
         <v>114</v>
       </c>
       <c r="G306" s="0" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C307" s="0" t="s">
         <v>9</v>
@@ -8835,15 +8824,15 @@
         <v>114</v>
       </c>
       <c r="G307" s="0" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C308" s="0" t="s">
         <v>9</v>
@@ -8852,15 +8841,15 @@
         <v>114</v>
       </c>
       <c r="G308" s="0" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C309" s="0" t="s">
         <v>9</v>
@@ -8871,7 +8860,7 @@
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B310" s="0" t="s">
         <v>86</v>
@@ -8885,10 +8874,10 @@
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C311" s="0" t="s">
         <v>9</v>
@@ -8899,7 +8888,7 @@
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B312" s="0" t="s">
         <v>86</v>
@@ -8914,12 +8903,12 @@
         <v>16</v>
       </c>
       <c r="G312" s="0" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B313" s="0" t="s">
         <v>86</v>
@@ -8931,12 +8920,12 @@
         <v>114</v>
       </c>
       <c r="G313" s="0" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B314" s="0" t="s">
         <v>86</v>
@@ -8948,12 +8937,12 @@
         <v>114</v>
       </c>
       <c r="G314" s="0" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B315" s="0" t="s">
         <v>86</v>
@@ -8967,10 +8956,10 @@
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C316" s="0" t="s">
         <v>9</v>
@@ -8979,15 +8968,15 @@
         <v>114</v>
       </c>
       <c r="G316" s="0" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C317" s="0" t="s">
         <v>9</v>
@@ -8998,10 +8987,10 @@
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C318" s="0" t="s">
         <v>9</v>
@@ -9010,15 +8999,15 @@
         <v>114</v>
       </c>
       <c r="G318" s="0" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C319" s="0" t="s">
         <v>9</v>
@@ -9027,15 +9016,15 @@
         <v>114</v>
       </c>
       <c r="G319" s="0" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C320" s="0" t="s">
         <v>9</v>
@@ -9044,15 +9033,15 @@
         <v>114</v>
       </c>
       <c r="G320" s="0" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C321" s="0" t="s">
         <v>9</v>
@@ -9061,15 +9050,15 @@
         <v>114</v>
       </c>
       <c r="G321" s="0" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C322" s="0" t="s">
         <v>9</v>
@@ -9078,15 +9067,15 @@
         <v>114</v>
       </c>
       <c r="G322" s="0" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C323" s="0" t="s">
         <v>9</v>
@@ -9095,15 +9084,15 @@
         <v>114</v>
       </c>
       <c r="G323" s="0" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C324" s="0" t="s">
         <v>9</v>
@@ -9114,7 +9103,7 @@
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B325" s="0" t="s">
         <v>134</v>
@@ -9128,10 +9117,10 @@
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C326" s="0" t="s">
         <v>9</v>
@@ -9142,10 +9131,10 @@
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C327" s="0" t="s">
         <v>9</v>
@@ -9156,7 +9145,7 @@
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B328" s="0" t="s">
         <v>134</v>
@@ -9170,7 +9159,7 @@
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B329" s="0" t="s">
         <v>86</v>
@@ -9184,7 +9173,7 @@
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B330" s="0" t="s">
         <v>88</v>
@@ -9193,12 +9182,12 @@
         <v>9</v>
       </c>
       <c r="D330" s="0" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B331" s="0" t="s">
         <v>147</v>
@@ -9212,10 +9201,10 @@
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C332" s="0" t="s">
         <v>9</v>
@@ -9226,10 +9215,10 @@
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C333" s="0" t="s">
         <v>9</v>
@@ -9240,10 +9229,10 @@
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C334" s="0" t="s">
         <v>9</v>
@@ -9254,10 +9243,10 @@
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C335" s="0" t="s">
         <v>9</v>
@@ -9268,10 +9257,10 @@
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C336" s="0" t="s">
         <v>9</v>
@@ -9282,10 +9271,10 @@
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C337" s="0" t="s">
         <v>9</v>
@@ -9296,10 +9285,10 @@
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C338" s="0" t="s">
         <v>9</v>
@@ -9310,10 +9299,10 @@
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C339" s="0" t="s">
         <v>9</v>
@@ -9324,10 +9313,10 @@
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C340" s="0" t="s">
         <v>9</v>
@@ -9338,10 +9327,10 @@
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C341" s="0" t="s">
         <v>9</v>
@@ -9352,10 +9341,10 @@
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C342" s="0" t="s">
         <v>9</v>
@@ -9366,10 +9355,10 @@
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C343" s="0" t="s">
         <v>9</v>
@@ -9380,10 +9369,10 @@
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C344" s="0" t="s">
         <v>9</v>
@@ -9394,7 +9383,7 @@
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B345" s="0" t="s">
         <v>147</v>
@@ -9408,10 +9397,10 @@
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C346" s="0" t="s">
         <v>9</v>
@@ -9422,7 +9411,7 @@
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B347" s="0" t="s">
         <v>147</v>
@@ -9436,10 +9425,10 @@
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C348" s="0" t="s">
         <v>9</v>
@@ -9450,10 +9439,10 @@
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C349" s="0" t="s">
         <v>9</v>
@@ -9464,10 +9453,10 @@
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C350" s="0" t="s">
         <v>9</v>
@@ -9478,10 +9467,10 @@
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C351" s="0" t="s">
         <v>9</v>
@@ -9492,7 +9481,7 @@
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B352" s="0" t="s">
         <v>134</v>
@@ -9506,10 +9495,10 @@
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C353" s="0" t="s">
         <v>9</v>
@@ -9520,7 +9509,7 @@
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B354" s="0" t="s">
         <v>86</v>
@@ -9529,15 +9518,15 @@
         <v>9</v>
       </c>
       <c r="D354" s="0" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G354" s="0" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B355" s="0" t="s">
         <v>86</v>
@@ -9549,12 +9538,12 @@
         <v>82</v>
       </c>
       <c r="G355" s="0" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B356" s="0" t="s">
         <v>86</v>
@@ -9568,7 +9557,7 @@
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B357" s="0" t="s">
         <v>86</v>
@@ -9580,12 +9569,12 @@
         <v>82</v>
       </c>
       <c r="G357" s="0" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B358" s="0" t="s">
         <v>86</v>
@@ -9597,12 +9586,12 @@
         <v>82</v>
       </c>
       <c r="G358" s="0" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B359" s="0" t="s">
         <v>134</v>
@@ -9616,10 +9605,10 @@
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C360" s="0" t="s">
         <v>9</v>
@@ -9630,10 +9619,10 @@
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C361" s="0" t="s">
         <v>9</v>
@@ -9644,10 +9633,10 @@
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C362" s="0" t="s">
         <v>9</v>
@@ -9658,7 +9647,7 @@
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B363" s="0" t="s">
         <v>134</v>
@@ -9672,7 +9661,7 @@
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B364" s="0" t="s">
         <v>134</v>
@@ -9686,10 +9675,10 @@
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C365" s="0" t="s">
         <v>9</v>
@@ -9700,10 +9689,10 @@
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C366" s="0" t="s">
         <v>9</v>
@@ -9714,10 +9703,10 @@
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C367" s="0" t="s">
         <v>9</v>
@@ -9728,7 +9717,7 @@
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B368" s="0" t="s">
         <v>134</v>
@@ -9742,7 +9731,7 @@
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B369" s="0" t="s">
         <v>147</v>
@@ -9756,10 +9745,10 @@
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C370" s="0" t="s">
         <v>9</v>
@@ -9770,10 +9759,10 @@
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C371" s="0" t="s">
         <v>9</v>
@@ -9784,24 +9773,24 @@
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="B372" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="C372" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D372" s="0" t="s">
         <v>840</v>
-      </c>
-      <c r="B372" s="0" t="s">
-        <v>841</v>
-      </c>
-      <c r="C372" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D372" s="0" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C373" s="0" t="s">
         <v>9</v>
@@ -9812,10 +9801,10 @@
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C374" s="0" t="s">
         <v>9</v>
@@ -9826,10 +9815,10 @@
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C375" s="0" t="s">
         <v>9</v>
@@ -9840,7 +9829,7 @@
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B376" s="0" t="s">
         <v>88</v>
@@ -9854,7 +9843,7 @@
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B377" s="0" t="s">
         <v>88</v>
@@ -9868,10 +9857,10 @@
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C378" s="0" t="s">
         <v>9</v>
@@ -9882,10 +9871,10 @@
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C379" s="0" t="s">
         <v>9</v>
@@ -9896,10 +9885,10 @@
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C380" s="0" t="s">
         <v>9</v>
@@ -9913,7 +9902,7 @@
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B381" s="0" t="s">
         <v>147</v>
@@ -9927,10 +9916,10 @@
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C382" s="0" t="s">
         <v>9</v>
@@ -9941,10 +9930,10 @@
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C383" s="0" t="s">
         <v>9</v>
@@ -9955,10 +9944,10 @@
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C384" s="0" t="s">
         <v>9</v>
@@ -9969,24 +9958,24 @@
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="B385" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="C385" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D385" s="0" t="s">
         <v>864</v>
-      </c>
-      <c r="B385" s="0" t="s">
-        <v>865</v>
-      </c>
-      <c r="C385" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D385" s="0" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C386" s="0" t="s">
         <v>9</v>
@@ -9995,15 +9984,15 @@
         <v>212</v>
       </c>
       <c r="G386" s="0" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C387" s="0" t="s">
         <v>9</v>
@@ -10012,15 +10001,15 @@
         <v>10</v>
       </c>
       <c r="G387" s="0" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C388" s="0" t="s">
         <v>9</v>
@@ -10029,12 +10018,12 @@
         <v>114</v>
       </c>
       <c r="G388" s="0" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B389" s="0" t="s">
         <v>187</v>
@@ -10048,10 +10037,10 @@
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C390" s="0" t="s">
         <v>9</v>
@@ -10066,12 +10055,12 @@
         <v>19</v>
       </c>
       <c r="G390" s="0" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B391" s="0" t="s">
         <v>134</v>
@@ -10083,15 +10072,15 @@
         <v>135</v>
       </c>
       <c r="G391" s="0" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C392" s="0" t="s">
         <v>9</v>
@@ -10102,10 +10091,10 @@
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C393" s="0" t="s">
         <v>9</v>
@@ -10116,7 +10105,7 @@
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B394" s="0" t="s">
         <v>88</v>
@@ -10128,26 +10117,26 @@
         <v>135</v>
       </c>
       <c r="G394" s="0" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C395" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D395" s="0" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B396" s="0" t="s">
         <v>88</v>
@@ -10159,32 +10148,32 @@
         <v>15</v>
       </c>
       <c r="G396" s="0" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="B397" s="0" t="s">
+        <v>891</v>
+      </c>
+      <c r="C397" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D397" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="G397" s="0" t="s">
         <v>892</v>
-      </c>
-      <c r="B397" s="0" t="s">
-        <v>893</v>
-      </c>
-      <c r="C397" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D397" s="0" t="s">
-        <v>617</v>
-      </c>
-      <c r="G397" s="0" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C398" s="0" t="s">
         <v>9</v>
@@ -10193,12 +10182,12 @@
         <v>558</v>
       </c>
       <c r="G398" s="0" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B399" s="2" t="n">
         <v>2049</v>
@@ -10212,10 +10201,10 @@
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C400" s="0" t="s">
         <v>9</v>
@@ -10226,10 +10215,10 @@
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C401" s="0" t="s">
         <v>9</v>
@@ -10240,10 +10229,10 @@
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C402" s="0" t="s">
         <v>9</v>
@@ -10255,15 +10244,15 @@
         <v>75</v>
       </c>
       <c r="G402" s="0" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C403" s="0" t="s">
         <v>9</v>
@@ -10275,15 +10264,15 @@
         <v>16</v>
       </c>
       <c r="F403" s="0" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G403" s="0" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B404" s="0" t="s">
         <v>88</v>
@@ -10292,18 +10281,18 @@
         <v>9</v>
       </c>
       <c r="D404" s="0" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E404" s="0" t="s">
         <v>75</v>
       </c>
       <c r="G404" s="0" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B405" s="0" t="s">
         <v>88</v>
@@ -10312,18 +10301,18 @@
         <v>9</v>
       </c>
       <c r="D405" s="0" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E405" s="0" t="s">
         <v>75</v>
       </c>
       <c r="G405" s="0" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B406" s="0" t="s">
         <v>88</v>
@@ -10332,18 +10321,18 @@
         <v>9</v>
       </c>
       <c r="D406" s="0" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E406" s="0" t="s">
         <v>75</v>
       </c>
       <c r="G406" s="0" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B407" s="0" t="s">
         <v>88</v>
@@ -10357,7 +10346,7 @@
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B408" s="0" t="s">
         <v>296</v>
@@ -10371,10 +10360,10 @@
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C409" s="0" t="s">
         <v>9</v>
@@ -10385,7 +10374,7 @@
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B410" s="0" t="s">
         <v>302</v>
@@ -10399,10 +10388,10 @@
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C411" s="0" t="s">
         <v>9</v>
@@ -10413,10 +10402,10 @@
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B412" s="0" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C412" s="0" t="s">
         <v>9</v>
@@ -10427,7 +10416,7 @@
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B413" s="0" t="s">
         <v>320</v>
@@ -10441,10 +10430,10 @@
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C414" s="0" t="s">
         <v>9</v>
@@ -10455,10 +10444,10 @@
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B415" s="0" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C415" s="0" t="s">
         <v>9</v>
@@ -10469,10 +10458,10 @@
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C416" s="0" t="s">
         <v>9</v>
@@ -10483,10 +10472,10 @@
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C417" s="0" t="s">
         <v>9</v>
@@ -10497,10 +10486,10 @@
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C418" s="0" t="s">
         <v>9</v>
@@ -10511,10 +10500,10 @@
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C419" s="0" t="s">
         <v>9</v>
@@ -10525,10 +10514,10 @@
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C420" s="0" t="s">
         <v>9</v>
@@ -10539,10 +10528,10 @@
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C421" s="0" t="s">
         <v>9</v>
@@ -10553,10 +10542,10 @@
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C422" s="0" t="s">
         <v>9</v>
@@ -10567,10 +10556,10 @@
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C423" s="0" t="s">
         <v>9</v>
@@ -10581,10 +10570,10 @@
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B424" s="0" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C424" s="0" t="s">
         <v>9</v>
@@ -10595,7 +10584,7 @@
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B425" s="0" t="s">
         <v>320</v>
@@ -10609,7 +10598,7 @@
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B426" s="0" t="s">
         <v>292</v>
@@ -10623,10 +10612,10 @@
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B427" s="0" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C427" s="0" t="s">
         <v>9</v>
@@ -10637,24 +10626,24 @@
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="B428" s="0" t="s">
+        <v>950</v>
+      </c>
+      <c r="C428" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D428" s="0" t="s">
         <v>951</v>
-      </c>
-      <c r="B428" s="0" t="s">
-        <v>952</v>
-      </c>
-      <c r="C428" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D428" s="0" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B429" s="0" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C429" s="0" t="s">
         <v>9</v>
@@ -10665,10 +10654,10 @@
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B430" s="0" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C430" s="0" t="s">
         <v>9</v>
@@ -10679,10 +10668,10 @@
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C431" s="0" t="s">
         <v>9</v>
@@ -10693,7 +10682,7 @@
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B432" s="0" t="s">
         <v>158</v>
@@ -10705,15 +10694,15 @@
         <v>41</v>
       </c>
       <c r="G432" s="0" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C433" s="0" t="s">
         <v>9</v>
@@ -10722,15 +10711,15 @@
         <v>130</v>
       </c>
       <c r="G433" s="0" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B434" s="0" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C434" s="0" t="s">
         <v>9</v>
@@ -10739,15 +10728,15 @@
         <v>130</v>
       </c>
       <c r="G434" s="0" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B435" s="0" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C435" s="0" t="s">
         <v>9</v>
@@ -10759,15 +10748,15 @@
         <v>75</v>
       </c>
       <c r="G435" s="0" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B436" s="0" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C436" s="0" t="s">
         <v>9</v>
@@ -10779,15 +10768,15 @@
         <v>75</v>
       </c>
       <c r="G436" s="0" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B437" s="0" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C437" s="0" t="s">
         <v>9</v>
@@ -10799,15 +10788,15 @@
         <v>75</v>
       </c>
       <c r="G437" s="0" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B438" s="0" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C438" s="0" t="s">
         <v>9</v>
@@ -10819,15 +10808,15 @@
         <v>75</v>
       </c>
       <c r="G438" s="0" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B439" s="0" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C439" s="0" t="s">
         <v>9</v>
@@ -10839,15 +10828,15 @@
         <v>75</v>
       </c>
       <c r="G439" s="0" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B440" s="0" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C440" s="0" t="s">
         <v>9</v>
@@ -10859,15 +10848,15 @@
         <v>75</v>
       </c>
       <c r="G440" s="0" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B441" s="0" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C441" s="0" t="s">
         <v>9</v>
@@ -10881,10 +10870,10 @@
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C442" s="0" t="s">
         <v>9</v>
@@ -10896,15 +10885,15 @@
         <v>75</v>
       </c>
       <c r="G442" s="0" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B443" s="0" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C443" s="0" t="s">
         <v>9</v>
@@ -10916,15 +10905,15 @@
         <v>75</v>
       </c>
       <c r="G443" s="0" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B444" s="0" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C444" s="0" t="s">
         <v>9</v>
@@ -10936,15 +10925,15 @@
         <v>75</v>
       </c>
       <c r="G444" s="0" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B445" s="0" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C445" s="0" t="s">
         <v>9</v>
@@ -10956,15 +10945,15 @@
         <v>75</v>
       </c>
       <c r="G445" s="0" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B446" s="0" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C446" s="0" t="s">
         <v>9</v>
@@ -10976,15 +10965,15 @@
         <v>75</v>
       </c>
       <c r="G446" s="0" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B447" s="0" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C447" s="0" t="s">
         <v>9</v>
@@ -10996,15 +10985,15 @@
         <v>550</v>
       </c>
       <c r="G447" s="0" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B448" s="0" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C448" s="0" t="s">
         <v>9</v>
@@ -11016,15 +11005,15 @@
         <v>550</v>
       </c>
       <c r="G448" s="0" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B449" s="0" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C449" s="0" t="s">
         <v>9</v>
@@ -11036,15 +11025,15 @@
         <v>550</v>
       </c>
       <c r="G449" s="0" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B450" s="0" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C450" s="0" t="s">
         <v>9</v>
@@ -11056,15 +11045,15 @@
         <v>550</v>
       </c>
       <c r="G450" s="0" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B451" s="0" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C451" s="0" t="s">
         <v>9</v>
@@ -11076,15 +11065,15 @@
         <v>550</v>
       </c>
       <c r="G451" s="0" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B452" s="0" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C452" s="0" t="s">
         <v>9</v>
@@ -11096,15 +11085,15 @@
         <v>550</v>
       </c>
       <c r="G452" s="0" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B453" s="0" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C453" s="0" t="s">
         <v>9</v>
@@ -11116,15 +11105,15 @@
         <v>550</v>
       </c>
       <c r="G453" s="0" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B454" s="0" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C454" s="0" t="s">
         <v>9</v>
@@ -11136,15 +11125,15 @@
         <v>550</v>
       </c>
       <c r="G454" s="0" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B455" s="0" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C455" s="0" t="s">
         <v>9</v>
@@ -11156,15 +11145,15 @@
         <v>550</v>
       </c>
       <c r="G455" s="0" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B456" s="0" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C456" s="0" t="s">
         <v>9</v>
@@ -11176,15 +11165,15 @@
         <v>559</v>
       </c>
       <c r="G456" s="0" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B457" s="0" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C457" s="0" t="s">
         <v>9</v>
@@ -11198,10 +11187,10 @@
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B458" s="0" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C458" s="0" t="s">
         <v>9</v>
@@ -11215,10 +11204,10 @@
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B459" s="0" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C459" s="0" t="s">
         <v>9</v>
@@ -11232,10 +11221,10 @@
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B460" s="0" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C460" s="0" t="s">
         <v>9</v>
@@ -11249,10 +11238,10 @@
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B461" s="0" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C461" s="0" t="s">
         <v>9</v>
@@ -11264,15 +11253,15 @@
         <v>75</v>
       </c>
       <c r="G461" s="0" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B462" s="0" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C462" s="0" t="s">
         <v>9</v>
@@ -11284,15 +11273,15 @@
         <v>75</v>
       </c>
       <c r="G462" s="0" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B463" s="0" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C463" s="0" t="s">
         <v>9</v>
@@ -11306,10 +11295,10 @@
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B464" s="0" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C464" s="0" t="s">
         <v>9</v>
@@ -11323,10 +11312,10 @@
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B465" s="0" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C465" s="0" t="s">
         <v>9</v>
@@ -11340,10 +11329,10 @@
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B466" s="0" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C466" s="0" t="s">
         <v>9</v>
@@ -11355,15 +11344,15 @@
         <v>75</v>
       </c>
       <c r="G466" s="0" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B467" s="0" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C467" s="0" t="s">
         <v>9</v>
@@ -11377,10 +11366,10 @@
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B468" s="0" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C468" s="0" t="s">
         <v>9</v>
@@ -11394,10 +11383,10 @@
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B469" s="0" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C469" s="0" t="s">
         <v>9</v>
@@ -11411,10 +11400,10 @@
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B470" s="0" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C470" s="0" t="s">
         <v>9</v>
@@ -11428,10 +11417,10 @@
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B471" s="0" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C471" s="0" t="s">
         <v>9</v>
@@ -11445,10 +11434,10 @@
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B472" s="0" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C472" s="0" t="s">
         <v>9</v>
@@ -11465,10 +11454,10 @@
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B473" s="0" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C473" s="0" t="s">
         <v>9</v>
@@ -11480,15 +11469,15 @@
         <v>75</v>
       </c>
       <c r="G473" s="0" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B474" s="0" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="C474" s="0" t="s">
         <v>9</v>
@@ -11502,10 +11491,10 @@
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B475" s="0" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C475" s="0" t="s">
         <v>9</v>
@@ -11519,10 +11508,10 @@
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B476" s="0" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C476" s="0" t="s">
         <v>9</v>
@@ -11536,10 +11525,10 @@
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B477" s="0" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C477" s="0" t="s">
         <v>9</v>
@@ -11553,10 +11542,10 @@
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B478" s="0" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C478" s="0" t="s">
         <v>9</v>
@@ -11568,15 +11557,15 @@
         <v>75</v>
       </c>
       <c r="G478" s="0" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="0" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B479" s="0" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C479" s="0" t="s">
         <v>9</v>
@@ -11588,15 +11577,15 @@
         <v>75</v>
       </c>
       <c r="G479" s="0" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B480" s="0" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C480" s="0" t="s">
         <v>9</v>
@@ -11610,10 +11599,10 @@
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="0" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B481" s="0" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C481" s="0" t="s">
         <v>9</v>
@@ -11627,10 +11616,10 @@
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B482" s="0" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C482" s="0" t="s">
         <v>9</v>
@@ -11644,10 +11633,10 @@
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="0" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B483" s="0" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C483" s="0" t="s">
         <v>9</v>
@@ -11659,15 +11648,15 @@
         <v>75</v>
       </c>
       <c r="G483" s="0" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B484" s="0" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C484" s="0" t="s">
         <v>9</v>
@@ -11679,15 +11668,15 @@
         <v>75</v>
       </c>
       <c r="G484" s="0" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B485" s="0" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C485" s="0" t="s">
         <v>9</v>
@@ -11701,10 +11690,10 @@
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="0" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B486" s="0" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C486" s="0" t="s">
         <v>9</v>
@@ -11718,10 +11707,10 @@
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B487" s="0" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C487" s="0" t="s">
         <v>9</v>
@@ -11738,10 +11727,10 @@
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B488" s="0" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C488" s="0" t="s">
         <v>9</v>
@@ -11755,10 +11744,10 @@
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="0" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B489" s="0" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C489" s="0" t="s">
         <v>9</v>
@@ -11772,10 +11761,10 @@
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B490" s="0" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C490" s="0" t="s">
         <v>9</v>
@@ -11787,15 +11776,15 @@
         <v>75</v>
       </c>
       <c r="G490" s="0" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="0" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B491" s="0" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C491" s="0" t="s">
         <v>9</v>
@@ -11807,15 +11796,15 @@
         <v>75</v>
       </c>
       <c r="G491" s="0" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="0" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B492" s="0" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C492" s="0" t="s">
         <v>9</v>
@@ -11832,10 +11821,10 @@
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="0" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B493" s="0" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C493" s="0" t="s">
         <v>9</v>
@@ -11847,15 +11836,15 @@
         <v>75</v>
       </c>
       <c r="G493" s="0" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="0" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B494" s="0" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C494" s="0" t="s">
         <v>9</v>
@@ -11867,15 +11856,15 @@
         <v>75</v>
       </c>
       <c r="G494" s="0" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="0" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B495" s="0" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C495" s="0" t="s">
         <v>9</v>
@@ -11889,10 +11878,10 @@
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="0" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B496" s="0" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C496" s="0" t="s">
         <v>9</v>
@@ -11906,10 +11895,10 @@
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="0" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B497" s="0" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C497" s="0" t="s">
         <v>9</v>
@@ -11923,10 +11912,10 @@
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="0" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B498" s="0" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C498" s="0" t="s">
         <v>9</v>
@@ -11940,10 +11929,10 @@
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B499" s="0" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C499" s="0" t="s">
         <v>9</v>
@@ -11957,10 +11946,10 @@
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="0" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B500" s="0" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C500" s="0" t="s">
         <v>9</v>
@@ -11972,15 +11961,15 @@
         <v>75</v>
       </c>
       <c r="G500" s="0" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="0" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B501" s="0" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C501" s="0" t="s">
         <v>9</v>
@@ -11994,10 +11983,10 @@
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="0" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B502" s="0" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C502" s="0" t="s">
         <v>9</v>
@@ -12011,10 +12000,10 @@
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B503" s="0" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C503" s="0" t="s">
         <v>9</v>
@@ -12028,10 +12017,10 @@
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="0" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B504" s="0" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C504" s="0" t="s">
         <v>9</v>
@@ -12045,7 +12034,7 @@
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B505" s="0" t="s">
         <v>582</v>
@@ -12059,279 +12048,276 @@
       <c r="E505" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F505" s="0" t="s">
-        <v>583</v>
-      </c>
       <c r="G505" s="0" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B506" s="0" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C506" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D506" s="0" t="s">
         <v>1131</v>
-      </c>
-      <c r="B506" s="0" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C506" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D506" s="0" t="s">
-        <v>1133</v>
       </c>
       <c r="E506" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G506" s="0" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="0" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B507" s="0" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C507" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D507" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E507" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G507" s="0" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="0" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B508" s="0" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C508" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D508" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E508" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G508" s="0" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="0" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B509" s="0" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C509" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D509" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E509" s="0" t="s">
         <v>550</v>
       </c>
       <c r="G509" s="0" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="0" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B510" s="0" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C510" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D510" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E510" s="0" t="s">
         <v>550</v>
       </c>
       <c r="G510" s="0" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="0" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B511" s="0" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C511" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D511" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E511" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G511" s="0" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="0" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B512" s="0" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C512" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D512" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E512" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G512" s="0" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="0" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B513" s="0" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C513" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D513" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E513" s="0" t="s">
         <v>550</v>
       </c>
       <c r="G513" s="0" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="0" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B514" s="0" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C514" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D514" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E514" s="0" t="s">
         <v>550</v>
       </c>
       <c r="G514" s="0" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="B515" s="0" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C515" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D515" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E515" s="0" t="s">
         <v>550</v>
       </c>
       <c r="G515" s="0" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B516" s="0" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C516" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D516" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E516" s="0" t="s">
         <v>550</v>
       </c>
       <c r="G516" s="0" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="0" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B517" s="0" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C517" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D517" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E517" s="0" t="s">
         <v>550</v>
       </c>
       <c r="G517" s="0" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="0" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B518" s="0" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C518" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D518" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E518" s="0" t="s">
         <v>550</v>
       </c>
       <c r="G518" s="0" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="0" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B519" s="0" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="C519" s="0" t="s">
         <v>9</v>
@@ -12343,15 +12329,15 @@
         <v>75</v>
       </c>
       <c r="G519" s="0" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="0" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B520" s="0" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C520" s="0" t="s">
         <v>9</v>
@@ -12363,15 +12349,15 @@
         <v>75</v>
       </c>
       <c r="G520" s="0" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="0" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B521" s="0" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C521" s="0" t="s">
         <v>9</v>
@@ -12380,15 +12366,15 @@
         <v>565</v>
       </c>
       <c r="G521" s="0" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="0" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B522" s="0" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="C522" s="0" t="s">
         <v>9</v>
@@ -12397,15 +12383,15 @@
         <v>565</v>
       </c>
       <c r="G522" s="0" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="0" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B523" s="0" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C523" s="0" t="s">
         <v>9</v>
@@ -12419,10 +12405,10 @@
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="0" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B524" s="0" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C524" s="0" t="s">
         <v>9</v>
@@ -12436,10 +12422,10 @@
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="0" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B525" s="0" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C525" s="0" t="s">
         <v>9</v>
@@ -12453,10 +12439,10 @@
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="0" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B526" s="0" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C526" s="0" t="s">
         <v>9</v>
@@ -12470,10 +12456,10 @@
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="0" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B527" s="0" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C527" s="0" t="s">
         <v>9</v>
@@ -12487,10 +12473,10 @@
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="0" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B528" s="0" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C528" s="0" t="s">
         <v>9</v>
@@ -12504,90 +12490,90 @@
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="0" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B529" s="0" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C529" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D529" s="0" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E529" s="0" t="s">
         <v>75</v>
       </c>
       <c r="G529" s="0" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="0" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B530" s="0" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C530" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D530" s="0" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E530" s="0" t="s">
         <v>75</v>
       </c>
       <c r="G530" s="0" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="0" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B531" s="0" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C531" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D531" s="0" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E531" s="0" t="s">
         <v>75</v>
       </c>
       <c r="G531" s="0" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B532" s="0" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C532" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D532" s="0" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E532" s="0" t="s">
         <v>75</v>
       </c>
       <c r="G532" s="0" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="0" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B533" s="0" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C533" s="0" t="s">
         <v>9</v>
@@ -12604,10 +12590,10 @@
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B534" s="0" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C534" s="0" t="s">
         <v>9</v>
@@ -12619,12 +12605,12 @@
         <v>16</v>
       </c>
       <c r="F534" s="0" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B535" s="2" t="n">
         <v>2122</v>
@@ -12636,18 +12622,18 @@
         <v>169</v>
       </c>
       <c r="E535" s="0" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="G535" s="0" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B536" s="0" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C536" s="0" t="s">
         <v>9</v>
@@ -12656,15 +12642,15 @@
         <v>15</v>
       </c>
       <c r="G536" s="0" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B537" s="0" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C537" s="0" t="s">
         <v>9</v>
@@ -12675,19 +12661,16 @@
       <c r="E537" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F537" s="0" t="s">
-        <v>583</v>
-      </c>
       <c r="G537" s="0" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="0" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B538" s="0" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="C538" s="0" t="s">
         <v>9</v>
@@ -12696,7 +12679,7 @@
         <v>373</v>
       </c>
       <c r="G538" s="0" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
   </sheetData>
